--- a/Coding_Articles.xlsx
+++ b/Coding_Articles.xlsx
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="1075">
   <si>
     <t>Replication?</t>
   </si>
@@ -3679,6 +3679,33 @@
   </si>
   <si>
     <t>10.1006/jmla.1997.2525</t>
+  </si>
+  <si>
+    <t>Ellis, N. C., &amp; Sagarra, N. (2010b). The bounds of adult language acquisition: Blocking and learned attention. Studies in Second Language Acquisition, 32, 1–28.</t>
+  </si>
+  <si>
+    <t>Duncan, L. G., Seymour, P. H. K., &amp; Hill, S. (1997). How important are rhyme and analogy in beginning reading? Cognition, 63, 171–208.</t>
+  </si>
+  <si>
+    <t>English (previously Scottish English)</t>
+  </si>
+  <si>
+    <t>Allum, P. H., &amp; Wheeldon, L. R. (2007). Planning scope in spoken sentence production: The role of grammatical units. Journal of Experimental Psychology: Learning, Memory, and Cognition, 33, 791–810.</t>
+  </si>
+  <si>
+    <t>one of several experiments is a replication; replication in a different language</t>
+  </si>
+  <si>
+    <t>Chinese (previously Japanese (&amp;English))</t>
+  </si>
+  <si>
+    <t>German (previously Japanese)</t>
+  </si>
+  <si>
+    <t>Smith, H. W., Matsuno, T., &amp; Umino, M. (1994). How similar are impression formation processes among Japanese and Americans? Social Psychology Quarterly, 57, 124-139.</t>
+  </si>
+  <si>
+    <t>Bornstein, B. H., &amp; Wilson, J. R. (2004). Extending the revelation effect to faces: Haven’t we met before? Memory, 12, 140–146.</t>
   </si>
 </sst>
 </file>
@@ -4013,8 +4040,8 @@
   <dimension ref="A1:AH246"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:M1048576"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A164" sqref="A164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14709,7 +14736,7 @@
         <v>1998</v>
       </c>
       <c r="U131" s="1">
-        <f t="shared" ref="U131:U161" si="8">IF(O131=1,G131-T131,"NA")</f>
+        <f t="shared" ref="U131:U194" si="8">IF(O131=1,G131-T131,"NA")</f>
         <v>0</v>
       </c>
       <c r="V131" s="1">
@@ -14731,14 +14758,14 @@
         <v>0</v>
       </c>
       <c r="AB131" s="1" t="str">
-        <f t="shared" ref="AB131:AB161" si="9">IF(O131=1, IF(SUM(V131:AA131)=0, "direct", IF(SUM(V131:AA131)=1, "partial", "conceptual")),"NA")</f>
+        <f t="shared" ref="AB131:AB194" si="9">IF(O131=1, IF(SUM(V131:AA131)=0, "direct", IF(SUM(V131:AA131)=1, "partial", "conceptual")),"NA")</f>
         <v>conceptual</v>
       </c>
       <c r="AC131" t="s">
         <v>853</v>
       </c>
       <c r="AD131" s="1" t="str">
-        <f t="shared" ref="AD131:AD161" si="10">IF(AB131="direct", "check", "NA")</f>
+        <f t="shared" ref="AD131:AD194" si="10">IF(AB131="direct", "check", "NA")</f>
         <v>NA</v>
       </c>
     </row>
@@ -16359,13 +16386,55 @@
       <c r="M152" t="s">
         <v>722</v>
       </c>
-      <c r="U152" s="1" t="str">
+      <c r="N152">
+        <v>1</v>
+      </c>
+      <c r="O152">
+        <v>1</v>
+      </c>
+      <c r="P152" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="Q152" s="1">
+        <v>1</v>
+      </c>
+      <c r="R152" t="s">
+        <v>1066</v>
+      </c>
+      <c r="S152">
+        <v>1</v>
+      </c>
+      <c r="T152">
+        <v>2010</v>
+      </c>
+      <c r="U152" s="1">
         <f t="shared" si="8"/>
-        <v>NA</v>
+        <v>4</v>
+      </c>
+      <c r="V152" s="1">
+        <v>1</v>
+      </c>
+      <c r="W152" s="1">
+        <v>0</v>
+      </c>
+      <c r="X152" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y152" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z152" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA152" s="1">
+        <v>0</v>
       </c>
       <c r="AB152" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>NA</v>
+        <v>conceptual</v>
+      </c>
+      <c r="AC152" t="s">
+        <v>12</v>
       </c>
       <c r="AD152" s="1" t="str">
         <f t="shared" si="10"/>
@@ -16412,6 +16481,18 @@
       <c r="M153" t="s">
         <v>726</v>
       </c>
+      <c r="N153">
+        <v>1</v>
+      </c>
+      <c r="O153">
+        <v>0</v>
+      </c>
+      <c r="P153" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q153" s="1">
+        <v>0</v>
+      </c>
       <c r="U153" s="1" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
@@ -16465,6 +16546,18 @@
       <c r="M154" t="s">
         <v>730</v>
       </c>
+      <c r="N154">
+        <v>1</v>
+      </c>
+      <c r="O154">
+        <v>0</v>
+      </c>
+      <c r="P154" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q154" s="1">
+        <v>0</v>
+      </c>
       <c r="U154" s="1" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
@@ -16518,13 +16611,55 @@
       <c r="M155" t="s">
         <v>734</v>
       </c>
-      <c r="U155" s="1" t="str">
+      <c r="N155">
+        <v>1</v>
+      </c>
+      <c r="O155">
+        <v>1</v>
+      </c>
+      <c r="P155" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="Q155" s="1">
+        <v>0</v>
+      </c>
+      <c r="R155" t="s">
+        <v>1067</v>
+      </c>
+      <c r="S155">
+        <v>0</v>
+      </c>
+      <c r="T155">
+        <v>1997</v>
+      </c>
+      <c r="U155" s="1">
         <f t="shared" si="8"/>
-        <v>NA</v>
+        <v>3</v>
+      </c>
+      <c r="V155" s="1">
+        <v>0</v>
+      </c>
+      <c r="W155" s="1">
+        <v>1</v>
+      </c>
+      <c r="X155" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y155" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z155" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA155" s="1">
+        <v>1</v>
       </c>
       <c r="AB155" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>NA</v>
+        <v>conceptual</v>
+      </c>
+      <c r="AC155" t="s">
+        <v>1068</v>
       </c>
       <c r="AD155" s="1" t="str">
         <f t="shared" si="10"/>
@@ -16571,13 +16706,55 @@
       <c r="M156" t="s">
         <v>738</v>
       </c>
-      <c r="U156" s="1" t="str">
+      <c r="N156">
+        <v>1</v>
+      </c>
+      <c r="O156">
+        <v>1</v>
+      </c>
+      <c r="P156" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="Q156" s="1">
+        <v>0</v>
+      </c>
+      <c r="R156" t="s">
+        <v>1069</v>
+      </c>
+      <c r="S156">
+        <v>0</v>
+      </c>
+      <c r="T156">
+        <v>2007</v>
+      </c>
+      <c r="U156" s="1">
         <f t="shared" si="8"/>
-        <v>NA</v>
+        <v>8</v>
+      </c>
+      <c r="V156" s="1">
+        <v>0</v>
+      </c>
+      <c r="W156" s="1">
+        <v>1</v>
+      </c>
+      <c r="X156" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y156" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z156" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA156" s="1">
+        <v>0</v>
       </c>
       <c r="AB156" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>NA</v>
+        <v>conceptual</v>
+      </c>
+      <c r="AC156" t="s">
+        <v>1071</v>
       </c>
       <c r="AD156" s="1" t="str">
         <f t="shared" si="10"/>
@@ -16624,6 +16801,18 @@
       <c r="M157" t="s">
         <v>743</v>
       </c>
+      <c r="N157">
+        <v>1</v>
+      </c>
+      <c r="O157">
+        <v>0</v>
+      </c>
+      <c r="P157" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q157" s="1">
+        <v>0</v>
+      </c>
       <c r="U157" s="1" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
@@ -16677,6 +16866,18 @@
       <c r="M158" t="s">
         <v>747</v>
       </c>
+      <c r="N158">
+        <v>1</v>
+      </c>
+      <c r="O158">
+        <v>0</v>
+      </c>
+      <c r="P158" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q158" s="1">
+        <v>0</v>
+      </c>
       <c r="U158" s="1" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
@@ -16730,6 +16931,18 @@
       <c r="M159" t="s">
         <v>751</v>
       </c>
+      <c r="N159">
+        <v>1</v>
+      </c>
+      <c r="O159">
+        <v>0</v>
+      </c>
+      <c r="P159" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q159" s="1">
+        <v>0</v>
+      </c>
       <c r="U159" s="1" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
@@ -16783,13 +16996,55 @@
       <c r="M160" t="s">
         <v>755</v>
       </c>
-      <c r="U160" s="1" t="str">
+      <c r="N160">
+        <v>1</v>
+      </c>
+      <c r="O160">
+        <v>1</v>
+      </c>
+      <c r="P160" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q160" s="1">
+        <v>0</v>
+      </c>
+      <c r="R160" t="s">
+        <v>196</v>
+      </c>
+      <c r="S160">
+        <v>1</v>
+      </c>
+      <c r="T160">
+        <v>2020</v>
+      </c>
+      <c r="U160" s="1">
         <f t="shared" si="8"/>
-        <v>NA</v>
+        <v>0</v>
+      </c>
+      <c r="V160" s="1">
+        <v>0</v>
+      </c>
+      <c r="W160">
+        <v>1</v>
+      </c>
+      <c r="X160">
+        <v>0</v>
+      </c>
+      <c r="Y160">
+        <v>0</v>
+      </c>
+      <c r="Z160">
+        <v>1</v>
+      </c>
+      <c r="AA160">
+        <v>0</v>
       </c>
       <c r="AB160" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>NA</v>
+        <v>conceptual</v>
+      </c>
+      <c r="AC160" t="s">
+        <v>12</v>
       </c>
       <c r="AD160" s="1" t="str">
         <f t="shared" si="10"/>
@@ -16836,13 +17091,55 @@
       <c r="M161" t="s">
         <v>759</v>
       </c>
-      <c r="U161" s="1" t="str">
+      <c r="N161">
+        <v>1</v>
+      </c>
+      <c r="O161">
+        <v>1</v>
+      </c>
+      <c r="P161" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="Q161" s="1">
+        <v>0</v>
+      </c>
+      <c r="R161" t="s">
+        <v>1073</v>
+      </c>
+      <c r="S161">
+        <v>0</v>
+      </c>
+      <c r="T161">
+        <v>1994</v>
+      </c>
+      <c r="U161" s="1">
         <f t="shared" si="8"/>
-        <v>NA</v>
+        <v>17</v>
+      </c>
+      <c r="V161" s="1">
+        <v>0</v>
+      </c>
+      <c r="W161">
+        <v>1</v>
+      </c>
+      <c r="X161">
+        <v>1</v>
+      </c>
+      <c r="Y161">
+        <v>0</v>
+      </c>
+      <c r="Z161">
+        <v>0</v>
+      </c>
+      <c r="AA161">
+        <v>0</v>
       </c>
       <c r="AB161" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>NA</v>
+        <v>conceptual</v>
+      </c>
+      <c r="AC161" t="s">
+        <v>1072</v>
       </c>
       <c r="AD161" s="1" t="str">
         <f t="shared" si="10"/>
@@ -16889,7 +17186,60 @@
       <c r="M162" t="s">
         <v>866</v>
       </c>
-      <c r="U162" s="1"/>
+      <c r="N162">
+        <v>1</v>
+      </c>
+      <c r="O162">
+        <v>1</v>
+      </c>
+      <c r="P162" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q162" s="1">
+        <v>0</v>
+      </c>
+      <c r="R162" t="s">
+        <v>196</v>
+      </c>
+      <c r="S162">
+        <v>1</v>
+      </c>
+      <c r="T162">
+        <v>1996</v>
+      </c>
+      <c r="U162" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V162" s="1">
+        <v>1</v>
+      </c>
+      <c r="W162" s="1">
+        <v>0</v>
+      </c>
+      <c r="X162" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y162" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z162" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA162" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB162" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>conceptual</v>
+      </c>
+      <c r="AC162" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD162" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
     </row>
     <row r="163" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
@@ -16931,7 +17281,60 @@
       <c r="M163" t="s">
         <v>870</v>
       </c>
-      <c r="U163" s="1"/>
+      <c r="N163">
+        <v>1</v>
+      </c>
+      <c r="O163">
+        <v>1</v>
+      </c>
+      <c r="P163" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q163" s="1">
+        <v>0</v>
+      </c>
+      <c r="R163" t="s">
+        <v>196</v>
+      </c>
+      <c r="S163">
+        <v>1</v>
+      </c>
+      <c r="T163">
+        <v>2017</v>
+      </c>
+      <c r="U163" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V163" s="1">
+        <v>1</v>
+      </c>
+      <c r="W163" s="1">
+        <v>0</v>
+      </c>
+      <c r="X163" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y163" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z163" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA163" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB163" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>conceptual</v>
+      </c>
+      <c r="AC163" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD163" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
     </row>
     <row r="164" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
@@ -16973,7 +17376,60 @@
       <c r="M164" t="s">
         <v>874</v>
       </c>
-      <c r="U164" s="1"/>
+      <c r="N164">
+        <v>1</v>
+      </c>
+      <c r="O164">
+        <v>1</v>
+      </c>
+      <c r="P164" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q164" s="1">
+        <v>0</v>
+      </c>
+      <c r="R164" t="s">
+        <v>1074</v>
+      </c>
+      <c r="S164">
+        <v>0</v>
+      </c>
+      <c r="T164">
+        <v>2004</v>
+      </c>
+      <c r="U164" s="1">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="V164" s="1">
+        <v>0</v>
+      </c>
+      <c r="W164" s="1">
+        <v>0</v>
+      </c>
+      <c r="X164" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y164" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z164" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA164" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB164" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>partial</v>
+      </c>
+      <c r="AC164" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD164" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
     </row>
     <row r="165" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
@@ -17015,7 +17471,18 @@
       <c r="M165" t="s">
         <v>878</v>
       </c>
-      <c r="U165" s="1"/>
+      <c r="U165" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="AB165" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="AD165" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
     </row>
     <row r="166" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
@@ -17057,7 +17524,18 @@
       <c r="M166" t="s">
         <v>882</v>
       </c>
-      <c r="U166" s="1"/>
+      <c r="U166" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="AB166" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="AD166" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
     </row>
     <row r="167" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
@@ -17099,7 +17577,18 @@
       <c r="M167" t="s">
         <v>886</v>
       </c>
-      <c r="U167" s="1"/>
+      <c r="U167" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="AB167" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="AD167" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
     </row>
     <row r="168" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
@@ -17141,7 +17630,18 @@
       <c r="M168" t="s">
         <v>890</v>
       </c>
-      <c r="U168" s="1"/>
+      <c r="U168" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="AB168" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="AD168" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
     </row>
     <row r="169" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
@@ -17183,7 +17683,18 @@
       <c r="M169" t="s">
         <v>895</v>
       </c>
-      <c r="U169" s="1"/>
+      <c r="U169" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="AB169" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="AD169" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
     </row>
     <row r="170" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
@@ -17225,7 +17736,18 @@
       <c r="M170" t="s">
         <v>899</v>
       </c>
-      <c r="U170" s="1"/>
+      <c r="U170" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="AB170" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="AD170" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
     </row>
     <row r="171" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
@@ -17267,7 +17789,18 @@
       <c r="M171" t="s">
         <v>903</v>
       </c>
-      <c r="U171" s="1"/>
+      <c r="U171" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="AB171" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="AD171" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
     </row>
     <row r="172" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
@@ -17309,7 +17842,18 @@
       <c r="M172" t="s">
         <v>907</v>
       </c>
-      <c r="U172" s="1"/>
+      <c r="U172" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="AB172" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="AD172" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
     </row>
     <row r="173" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
@@ -17351,7 +17895,18 @@
       <c r="M173" t="s">
         <v>912</v>
       </c>
-      <c r="U173" s="1"/>
+      <c r="U173" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="AB173" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="AD173" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
     </row>
     <row r="174" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
@@ -17393,7 +17948,18 @@
       <c r="M174" t="s">
         <v>916</v>
       </c>
-      <c r="U174" s="1"/>
+      <c r="U174" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="AB174" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="AD174" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
     </row>
     <row r="175" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
@@ -17435,7 +18001,18 @@
       <c r="M175" t="s">
         <v>920</v>
       </c>
-      <c r="U175" s="1"/>
+      <c r="U175" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="AB175" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="AD175" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
     </row>
     <row r="176" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
@@ -17477,9 +18054,20 @@
       <c r="M176" t="s">
         <v>924</v>
       </c>
-      <c r="U176" s="1"/>
-    </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U176" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="AB176" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="AD176" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="177" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>925</v>
       </c>
@@ -17519,9 +18107,20 @@
       <c r="M177" t="s">
         <v>928</v>
       </c>
-      <c r="U177" s="1"/>
-    </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U177" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="AB177" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="AD177" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="178" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>929</v>
       </c>
@@ -17561,9 +18160,20 @@
       <c r="M178" t="s">
         <v>932</v>
       </c>
-      <c r="U178" s="1"/>
-    </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U178" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="AB178" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="AD178" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="179" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>933</v>
       </c>
@@ -17603,9 +18213,20 @@
       <c r="M179" t="s">
         <v>936</v>
       </c>
-      <c r="U179" s="1"/>
-    </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U179" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="AB179" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="AD179" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="180" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>937</v>
       </c>
@@ -17645,9 +18266,20 @@
       <c r="M180" t="s">
         <v>940</v>
       </c>
-      <c r="U180" s="1"/>
-    </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U180" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="AB180" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="AD180" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="181" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>941</v>
       </c>
@@ -17687,9 +18319,20 @@
       <c r="M181" t="s">
         <v>944</v>
       </c>
-      <c r="U181" s="1"/>
-    </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U181" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="AB181" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="AD181" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="182" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>945</v>
       </c>
@@ -17729,9 +18372,20 @@
       <c r="M182" t="s">
         <v>948</v>
       </c>
-      <c r="U182" s="1"/>
-    </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U182" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="AB182" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="AD182" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="183" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>949</v>
       </c>
@@ -17771,9 +18425,20 @@
       <c r="M183" t="s">
         <v>952</v>
       </c>
-      <c r="U183" s="1"/>
-    </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U183" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="AB183" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="AD183" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="184" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>953</v>
       </c>
@@ -17813,9 +18478,20 @@
       <c r="M184" t="s">
         <v>956</v>
       </c>
-      <c r="U184" s="1"/>
-    </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U184" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="AB184" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="AD184" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="185" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>957</v>
       </c>
@@ -17855,9 +18531,20 @@
       <c r="M185" t="s">
         <v>960</v>
       </c>
-      <c r="U185" s="1"/>
-    </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U185" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="AB185" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="AD185" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="186" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>961</v>
       </c>
@@ -17897,9 +18584,20 @@
       <c r="M186" t="s">
         <v>964</v>
       </c>
-      <c r="U186" s="1"/>
-    </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U186" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="AB186" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="AD186" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="187" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>965</v>
       </c>
@@ -17939,9 +18637,20 @@
       <c r="M187" t="s">
         <v>968</v>
       </c>
-      <c r="U187" s="1"/>
-    </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U187" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="AB187" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="AD187" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="188" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>969</v>
       </c>
@@ -17981,9 +18690,20 @@
       <c r="M188" t="s">
         <v>972</v>
       </c>
-      <c r="U188" s="1"/>
-    </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U188" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="AB188" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="AD188" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="189" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>973</v>
       </c>
@@ -18023,9 +18743,20 @@
       <c r="M189" t="s">
         <v>976</v>
       </c>
-      <c r="U189" s="1"/>
-    </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U189" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="AB189" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="AD189" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="190" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>977</v>
       </c>
@@ -18065,9 +18796,20 @@
       <c r="M190" t="s">
         <v>980</v>
       </c>
-      <c r="U190" s="1"/>
-    </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U190" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="AB190" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="AD190" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="191" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>981</v>
       </c>
@@ -18107,9 +18849,20 @@
       <c r="M191" t="s">
         <v>984</v>
       </c>
-      <c r="U191" s="1"/>
-    </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U191" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="AB191" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="AD191" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="192" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>985</v>
       </c>
@@ -18149,9 +18902,20 @@
       <c r="M192" t="s">
         <v>988</v>
       </c>
-      <c r="U192" s="1"/>
-    </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U192" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="AB192" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="AD192" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="193" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>989</v>
       </c>
@@ -18191,9 +18955,20 @@
       <c r="M193" t="s">
         <v>993</v>
       </c>
-      <c r="U193" s="1"/>
-    </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U193" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="AB193" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="AD193" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="194" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>994</v>
       </c>
@@ -18233,9 +19008,20 @@
       <c r="M194" t="s">
         <v>997</v>
       </c>
-      <c r="U194" s="1"/>
-    </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U194" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="AB194" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="AD194" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="195" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>998</v>
       </c>
@@ -18275,9 +19061,20 @@
       <c r="M195" t="s">
         <v>1001</v>
       </c>
-      <c r="U195" s="1"/>
-    </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U195" s="1" t="str">
+        <f t="shared" ref="U195:U211" si="11">IF(O195=1,G195-T195,"NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="AB195" s="1" t="str">
+        <f t="shared" ref="AB195:AB211" si="12">IF(O195=1, IF(SUM(V195:AA195)=0, "direct", IF(SUM(V195:AA195)=1, "partial", "conceptual")),"NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="AD195" s="1" t="str">
+        <f t="shared" ref="AD195:AD211" si="13">IF(AB195="direct", "check", "NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="196" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>1002</v>
       </c>
@@ -18317,9 +19114,20 @@
       <c r="M196" t="s">
         <v>1005</v>
       </c>
-      <c r="U196" s="1"/>
-    </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U196" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NA</v>
+      </c>
+      <c r="AB196" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="AD196" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="197" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>1006</v>
       </c>
@@ -18359,9 +19167,20 @@
       <c r="M197" t="s">
         <v>1009</v>
       </c>
-      <c r="U197" s="1"/>
-    </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U197" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NA</v>
+      </c>
+      <c r="AB197" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="AD197" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="198" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>1010</v>
       </c>
@@ -18401,9 +19220,20 @@
       <c r="M198" t="s">
         <v>1013</v>
       </c>
-      <c r="U198" s="1"/>
-    </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U198" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NA</v>
+      </c>
+      <c r="AB198" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="AD198" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="199" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>1014</v>
       </c>
@@ -18443,9 +19273,20 @@
       <c r="M199" t="s">
         <v>1017</v>
       </c>
-      <c r="U199" s="1"/>
-    </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U199" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NA</v>
+      </c>
+      <c r="AB199" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="AD199" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="200" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>1018</v>
       </c>
@@ -18485,9 +19326,20 @@
       <c r="M200" t="s">
         <v>1021</v>
       </c>
-      <c r="U200" s="1"/>
-    </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U200" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NA</v>
+      </c>
+      <c r="AB200" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="AD200" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="201" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>1022</v>
       </c>
@@ -18527,9 +19379,20 @@
       <c r="M201" t="s">
         <v>1025</v>
       </c>
-      <c r="U201" s="1"/>
-    </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U201" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NA</v>
+      </c>
+      <c r="AB201" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="AD201" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="202" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>1026</v>
       </c>
@@ -18569,9 +19432,20 @@
       <c r="M202" t="s">
         <v>1029</v>
       </c>
-      <c r="U202" s="1"/>
-    </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U202" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NA</v>
+      </c>
+      <c r="AB202" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="AD202" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="203" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>1030</v>
       </c>
@@ -18611,9 +19485,20 @@
       <c r="M203" t="s">
         <v>1033</v>
       </c>
-      <c r="U203" s="1"/>
-    </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U203" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NA</v>
+      </c>
+      <c r="AB203" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="AD203" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="204" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>1034</v>
       </c>
@@ -18653,9 +19538,20 @@
       <c r="M204" t="s">
         <v>1037</v>
       </c>
-      <c r="U204" s="1"/>
-    </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U204" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NA</v>
+      </c>
+      <c r="AB204" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="AD204" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="205" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>1038</v>
       </c>
@@ -18695,9 +19591,20 @@
       <c r="M205" t="s">
         <v>1041</v>
       </c>
-      <c r="U205" s="1"/>
-    </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U205" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NA</v>
+      </c>
+      <c r="AB205" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="AD205" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="206" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>1042</v>
       </c>
@@ -18737,9 +19644,20 @@
       <c r="M206" t="s">
         <v>1045</v>
       </c>
-      <c r="U206" s="1"/>
-    </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U206" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NA</v>
+      </c>
+      <c r="AB206" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="AD206" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="207" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>1046</v>
       </c>
@@ -18779,9 +19697,20 @@
       <c r="M207" t="s">
         <v>1049</v>
       </c>
-      <c r="U207" s="1"/>
-    </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U207" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NA</v>
+      </c>
+      <c r="AB207" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="AD207" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="208" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>1050</v>
       </c>
@@ -18821,9 +19750,20 @@
       <c r="M208" t="s">
         <v>1053</v>
       </c>
-      <c r="U208" s="1"/>
-    </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U208" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NA</v>
+      </c>
+      <c r="AB208" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="AD208" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="209" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>1054</v>
       </c>
@@ -18863,9 +19803,20 @@
       <c r="M209" t="s">
         <v>1057</v>
       </c>
-      <c r="U209" s="1"/>
-    </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U209" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NA</v>
+      </c>
+      <c r="AB209" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="AD209" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="210" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>1058</v>
       </c>
@@ -18905,9 +19856,20 @@
       <c r="M210" t="s">
         <v>1061</v>
       </c>
-      <c r="U210" s="1"/>
-    </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U210" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NA</v>
+      </c>
+      <c r="AB210" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="AD210" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="211" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>1062</v>
       </c>
@@ -18947,45 +19909,56 @@
       <c r="M211" t="s">
         <v>1065</v>
       </c>
-      <c r="U211" s="1"/>
-    </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U211" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NA</v>
+      </c>
+      <c r="AB211" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="AD211" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="212" spans="1:30" x14ac:dyDescent="0.3">
       <c r="U212" s="1"/>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:30" x14ac:dyDescent="0.3">
       <c r="U213" s="1"/>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:30" x14ac:dyDescent="0.3">
       <c r="U214" s="1"/>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:30" x14ac:dyDescent="0.3">
       <c r="U215" s="1"/>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:30" x14ac:dyDescent="0.3">
       <c r="U216" s="1"/>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:30" x14ac:dyDescent="0.3">
       <c r="U217" s="1"/>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:30" x14ac:dyDescent="0.3">
       <c r="U218" s="1"/>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:30" x14ac:dyDescent="0.3">
       <c r="U219" s="1"/>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:30" x14ac:dyDescent="0.3">
       <c r="U220" s="1"/>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:30" x14ac:dyDescent="0.3">
       <c r="U221" s="1"/>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:30" x14ac:dyDescent="0.3">
       <c r="U222" s="1"/>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:30" x14ac:dyDescent="0.3">
       <c r="U223" s="1"/>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:30" x14ac:dyDescent="0.3">
       <c r="U224" s="1"/>
     </row>
     <row r="225" spans="21:21" x14ac:dyDescent="0.3">

--- a/Coding_Articles.xlsx
+++ b/Coding_Articles.xlsx
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="1097">
   <si>
     <t>Replication?</t>
   </si>
@@ -3706,6 +3706,72 @@
   </si>
   <si>
     <t>Bornstein, B. H., &amp; Wilson, J. R. (2004). Extending the revelation effect to faces: Haven’t we met before? Memory, 12, 140–146.</t>
+  </si>
+  <si>
+    <t>Damian, M. F., Vigliocco, G., &amp; Levelt, W. J. M. (2001). Effects of semantic context in the naming of pictures and words. Cognition, 81, B77–B86.</t>
+  </si>
+  <si>
+    <t>English (with Spanish natives; initial: Korean and Chinese natives)</t>
+  </si>
+  <si>
+    <t>Johnson, J. S., &amp; Newport, E. L. (1989). Critical period effects in second language learning: The influence of maturational state on the acquisition of English as a second language. Cognitive Psychology, 21, 60–99.</t>
+  </si>
+  <si>
+    <t>replication of a previous study in order to test its validity</t>
+  </si>
+  <si>
+    <t>Ferrand, L., Segui, J., &amp; Grainger, J. (1996). Masked priming of word and picture naming: the role of syllabic units. Journal of Memory and Language, 35, 708–723.</t>
+  </si>
+  <si>
+    <t>Smith, V. L., &amp; Clark, H. H. (1993). On the course of answering questions. Journal of Memory and Language, 32, 25-38.</t>
+  </si>
+  <si>
+    <t>Parker, A., &amp; Dagnall, N. (2009). Concreteness effects revisited: The influence of dynamic visual noise on memory for concrete and abstract words. Memory, 17, 397-410. doi:10.1080/09658210902802967</t>
+  </si>
+  <si>
+    <t>Dewhurst, S. A., &amp; Anderson, S. J. (1999). Effects of exact and category repetition in true and false recognition memory. Memory &amp; Cognition, 27, 665–673.</t>
+  </si>
+  <si>
+    <t>Dilley, L. C., &amp; McAuley, J. D. (2008). Distal prosodic context affects word segmentation and lexical processing. Journal of Memory and Language, 59, 294–311.</t>
+  </si>
+  <si>
+    <t>replication of a previous study by the same authors; one of several experiments is a replication</t>
+  </si>
+  <si>
+    <t>EVANS, J. ST. B. T. (1983). Linguistic determinants of bias in conditional reasoning. Quarterly Journal of Experimental Psychology, 35A, 635–644.</t>
+  </si>
+  <si>
+    <t>Watson, J. M., Balota, D. A., &amp; Roediger, H. L. (2003). Creating false memories with hybrid lists of semantic and phonological associates: Over-additive false memories produced by converging associative networks. Journal of Memory and Language, 49, 95–118. http://dx.doi.org/10.1016/S0749-596X(03)00019-6.</t>
+  </si>
+  <si>
+    <t>Baars, B. J., Motley, M. T., &amp; MacKay, D. G. (1975). Output editing for lexical status in artificially elicited slips of the tongue. Journal of Verbal Learning and Verbal Behavior, 14, 382–391.</t>
+  </si>
+  <si>
+    <t>Yonelinas, A. P. (1994). Receiver-operating characteristics in recognition memory: Evidence for a dual process model. Journal of Experimental Psychology: Learning, Memory and Cognition, 20(6), 1341-1354.</t>
+  </si>
+  <si>
+    <t>Spanish-Catalan bilinguals (previously English-Spanish and English-Mandarin bilinguals)</t>
+  </si>
+  <si>
+    <t>Prior, A., &amp; Gollan, T. H. (2011). Good language-switchers are good taskswitchers: Evidence from Spanish–English and Mandarin–English bilinguals. Journal of International Neuropsychological Society, 17, 682–691.</t>
+  </si>
+  <si>
+    <t>Dillon, B., Mishler, A., Sloggett, S., &amp; Phillips, C. (2013). Contrasting intrusion profiles for agreement and anaphora: Experimental and modeling evidence. Journal of Memory and Language, 69 , 85–103.</t>
+  </si>
+  <si>
+    <t>Greene, S. B., Gerrig, R. J., McKoon, G., &amp; Ratcliff, R. (1994). Unheralded pronouns and management by common ground. Journal of Memory and Language, 33, 511–526.</t>
+  </si>
+  <si>
+    <t>Vitevitch, M. S., &amp; Luce, P. A. (1998). When words compete: Levels of processing in perception of spoken words. Psychological Science, 9, 325–329.</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>SCHREUDER, R., FLORES D'ARCAIS, G. B., &amp; GLAZENBORG, G. (1984). Effects of perceptual and conceptual similarity in semantic priming. Psychological Research, 45, 339-354.</t>
+  </si>
+  <si>
+    <t>Spanish, previously Spanish-Basque</t>
   </si>
 </sst>
 </file>
@@ -4040,8 +4106,8 @@
   <dimension ref="A1:AH246"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A164" sqref="A164"/>
+      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N200" sqref="N200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17471,10 +17537,29 @@
       <c r="M165" t="s">
         <v>878</v>
       </c>
+      <c r="N165">
+        <v>1</v>
+      </c>
+      <c r="O165">
+        <v>0</v>
+      </c>
+      <c r="P165" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q165" s="1">
+        <v>0</v>
+      </c>
+      <c r="R165" s="1"/>
+      <c r="S165" s="1"/>
+      <c r="T165" s="1"/>
       <c r="U165" s="1" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
+      <c r="V165" s="1"/>
+      <c r="W165" s="1"/>
+      <c r="X165" s="1"/>
+      <c r="Y165" s="1"/>
       <c r="AB165" s="1" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
@@ -17524,13 +17609,55 @@
       <c r="M166" t="s">
         <v>882</v>
       </c>
-      <c r="U166" s="1" t="str">
+      <c r="N166">
+        <v>1</v>
+      </c>
+      <c r="O166">
+        <v>1</v>
+      </c>
+      <c r="P166" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q166" s="1">
+        <v>0</v>
+      </c>
+      <c r="R166" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="S166" s="1">
+        <v>0</v>
+      </c>
+      <c r="T166" s="1">
+        <v>2001</v>
+      </c>
+      <c r="U166" s="1">
         <f t="shared" si="8"/>
-        <v>NA</v>
+        <v>12</v>
+      </c>
+      <c r="V166" s="1">
+        <v>0</v>
+      </c>
+      <c r="W166" s="1">
+        <v>0</v>
+      </c>
+      <c r="X166" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y166" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z166" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA166" s="1">
+        <v>0</v>
       </c>
       <c r="AB166" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>NA</v>
+        <v>partial</v>
+      </c>
+      <c r="AC166" t="s">
+        <v>801</v>
       </c>
       <c r="AD166" s="1" t="str">
         <f t="shared" si="10"/>
@@ -17577,13 +17704,55 @@
       <c r="M167" t="s">
         <v>886</v>
       </c>
-      <c r="U167" s="1" t="str">
+      <c r="N167">
+        <v>1</v>
+      </c>
+      <c r="O167">
+        <v>1</v>
+      </c>
+      <c r="P167" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q167" s="1">
+        <v>0</v>
+      </c>
+      <c r="R167" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="S167" s="1">
+        <v>1</v>
+      </c>
+      <c r="T167" s="1">
+        <v>2015</v>
+      </c>
+      <c r="U167" s="1">
         <f t="shared" si="8"/>
-        <v>NA</v>
+        <v>0</v>
+      </c>
+      <c r="V167" s="1">
+        <v>0</v>
+      </c>
+      <c r="W167" s="1">
+        <v>0</v>
+      </c>
+      <c r="X167" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y167" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z167" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA167" s="1">
+        <v>0</v>
       </c>
       <c r="AB167" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>NA</v>
+        <f>IF(O167=1, IF(SUM(V167:AA167)=0, "direct", IF(SUM(V167:AA167)=1, "partial", "conceptual")),"NA")</f>
+        <v>partial</v>
+      </c>
+      <c r="AC167" t="s">
+        <v>12</v>
       </c>
       <c r="AD167" s="1" t="str">
         <f t="shared" si="10"/>
@@ -17630,13 +17799,55 @@
       <c r="M168" t="s">
         <v>890</v>
       </c>
-      <c r="U168" s="1" t="str">
+      <c r="N168">
+        <v>1</v>
+      </c>
+      <c r="O168">
+        <v>1</v>
+      </c>
+      <c r="P168" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="Q168" s="1">
+        <v>0</v>
+      </c>
+      <c r="R168" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="S168" s="1">
+        <v>0</v>
+      </c>
+      <c r="T168" s="1">
+        <v>1989</v>
+      </c>
+      <c r="U168" s="1">
         <f t="shared" si="8"/>
-        <v>NA</v>
+        <v>12</v>
+      </c>
+      <c r="V168" s="1">
+        <v>0</v>
+      </c>
+      <c r="W168" s="1">
+        <v>1</v>
+      </c>
+      <c r="X168" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y168" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z168" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA168" s="1">
+        <v>0</v>
       </c>
       <c r="AB168" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>NA</v>
+        <v>conceptual</v>
+      </c>
+      <c r="AC168" t="s">
+        <v>1076</v>
       </c>
       <c r="AD168" s="1" t="str">
         <f t="shared" si="10"/>
@@ -17683,17 +17894,58 @@
       <c r="M169" t="s">
         <v>895</v>
       </c>
-      <c r="U169" s="1" t="str">
+      <c r="N169">
+        <v>1</v>
+      </c>
+      <c r="O169">
+        <v>1</v>
+      </c>
+      <c r="P169" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="Q169" s="1">
+        <v>0</v>
+      </c>
+      <c r="R169" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="S169" s="1">
+        <v>0</v>
+      </c>
+      <c r="T169" s="1">
+        <v>1996</v>
+      </c>
+      <c r="U169" s="1">
         <f t="shared" si="8"/>
-        <v>NA</v>
+        <v>7</v>
+      </c>
+      <c r="V169" s="1">
+        <v>0</v>
+      </c>
+      <c r="W169" s="1">
+        <v>0</v>
+      </c>
+      <c r="X169" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y169" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z169" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA169" s="1">
+        <v>0</v>
       </c>
       <c r="AB169" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>NA</v>
-      </c>
-      <c r="AD169" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>NA</v>
+        <v>direct</v>
+      </c>
+      <c r="AC169" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD169" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:30" x14ac:dyDescent="0.3">
@@ -17736,13 +17988,55 @@
       <c r="M170" t="s">
         <v>899</v>
       </c>
-      <c r="U170" s="1" t="str">
+      <c r="N170">
+        <v>1</v>
+      </c>
+      <c r="O170">
+        <v>1</v>
+      </c>
+      <c r="P170" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="Q170" s="1">
+        <v>0</v>
+      </c>
+      <c r="R170" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="S170" s="1">
+        <v>0</v>
+      </c>
+      <c r="T170" s="1">
+        <v>1993</v>
+      </c>
+      <c r="U170" s="1">
         <f t="shared" si="8"/>
-        <v>NA</v>
+        <v>2</v>
+      </c>
+      <c r="V170" s="1">
+        <v>0</v>
+      </c>
+      <c r="W170" s="1">
+        <v>0</v>
+      </c>
+      <c r="X170" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y170" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z170" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA170" s="1">
+        <v>0</v>
       </c>
       <c r="AB170" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>NA</v>
+        <v>partial</v>
+      </c>
+      <c r="AC170" t="s">
+        <v>12</v>
       </c>
       <c r="AD170" s="1" t="str">
         <f t="shared" si="10"/>
@@ -17789,16 +18083,27 @@
       <c r="M171" t="s">
         <v>903</v>
       </c>
+      <c r="N171">
+        <v>1</v>
+      </c>
+      <c r="O171">
+        <v>0</v>
+      </c>
+      <c r="P171" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q171" s="1">
+        <v>0</v>
+      </c>
+      <c r="R171" s="1"/>
+      <c r="S171" s="1"/>
+      <c r="T171" s="1"/>
       <c r="U171" s="1" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="AB171" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>NA</v>
-      </c>
       <c r="AD171" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AB172="direct", "check", "NA")</f>
         <v>NA</v>
       </c>
     </row>
@@ -17842,16 +18147,58 @@
       <c r="M172" t="s">
         <v>907</v>
       </c>
-      <c r="U172" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>NA</v>
+      <c r="N172">
+        <v>1</v>
+      </c>
+      <c r="O172">
+        <v>1</v>
+      </c>
+      <c r="P172" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q172" s="1">
+        <v>1</v>
+      </c>
+      <c r="R172" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="S172" s="1">
+        <v>1</v>
+      </c>
+      <c r="T172" s="1">
+        <v>2005</v>
+      </c>
+      <c r="U172" s="1">
+        <f>IF(O172=1,G171-T172,"NA")</f>
+        <v>0</v>
+      </c>
+      <c r="V172" s="1">
+        <v>1</v>
+      </c>
+      <c r="W172" s="1">
+        <v>0</v>
+      </c>
+      <c r="X172" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y172" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z172" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA172" s="1">
+        <v>1</v>
       </c>
       <c r="AB172" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>NA</v>
+        <f>IF(O172=1, IF(SUM(V172:AA172)=0, "direct", IF(SUM(V172:AA172)=1, "partial", "conceptual")),"NA")</f>
+        <v>conceptual</v>
+      </c>
+      <c r="AC172" t="s">
+        <v>12</v>
       </c>
       <c r="AD172" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AB173="direct", "check", "NA")</f>
         <v>NA</v>
       </c>
     </row>
@@ -17895,6 +18242,18 @@
       <c r="M173" t="s">
         <v>912</v>
       </c>
+      <c r="N173">
+        <v>1</v>
+      </c>
+      <c r="O173">
+        <v>0</v>
+      </c>
+      <c r="P173" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q173" s="1">
+        <v>0</v>
+      </c>
       <c r="U173" s="1" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
@@ -17948,13 +18307,55 @@
       <c r="M174" t="s">
         <v>916</v>
       </c>
-      <c r="U174" s="1" t="str">
+      <c r="N174">
+        <v>1</v>
+      </c>
+      <c r="O174">
+        <v>1</v>
+      </c>
+      <c r="P174" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="Q174" s="1">
+        <v>1</v>
+      </c>
+      <c r="R174" t="s">
+        <v>1081</v>
+      </c>
+      <c r="S174">
+        <v>0</v>
+      </c>
+      <c r="T174">
+        <v>2009</v>
+      </c>
+      <c r="U174" s="1">
         <f t="shared" si="8"/>
-        <v>NA</v>
+        <v>9</v>
+      </c>
+      <c r="V174" s="1">
+        <v>0</v>
+      </c>
+      <c r="W174" s="1">
+        <v>0</v>
+      </c>
+      <c r="X174">
+        <v>1</v>
+      </c>
+      <c r="Y174">
+        <v>0</v>
+      </c>
+      <c r="Z174">
+        <v>0</v>
+      </c>
+      <c r="AA174">
+        <v>0</v>
       </c>
       <c r="AB174" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>NA</v>
+        <v>partial</v>
+      </c>
+      <c r="AC174" t="s">
+        <v>12</v>
       </c>
       <c r="AD174" s="1" t="str">
         <f t="shared" si="10"/>
@@ -18001,17 +18402,58 @@
       <c r="M175" t="s">
         <v>920</v>
       </c>
-      <c r="U175" s="1" t="str">
+      <c r="N175">
+        <v>1</v>
+      </c>
+      <c r="O175">
+        <v>1</v>
+      </c>
+      <c r="P175" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q175" s="1">
+        <v>0</v>
+      </c>
+      <c r="R175" t="s">
+        <v>1082</v>
+      </c>
+      <c r="S175">
+        <v>1</v>
+      </c>
+      <c r="T175">
+        <v>1999</v>
+      </c>
+      <c r="U175" s="1">
         <f t="shared" si="8"/>
-        <v>NA</v>
+        <v>2</v>
+      </c>
+      <c r="V175" s="1">
+        <v>0</v>
+      </c>
+      <c r="W175" s="1">
+        <v>0</v>
+      </c>
+      <c r="X175" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y175" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z175" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA175" s="1">
+        <v>0</v>
       </c>
       <c r="AB175" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>NA</v>
-      </c>
-      <c r="AD175" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>NA</v>
+        <v>direct</v>
+      </c>
+      <c r="AC175" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD175" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:30" x14ac:dyDescent="0.3">
@@ -18054,13 +18496,55 @@
       <c r="M176" t="s">
         <v>924</v>
       </c>
-      <c r="U176" s="1" t="str">
+      <c r="N176">
+        <v>1</v>
+      </c>
+      <c r="O176">
+        <v>1</v>
+      </c>
+      <c r="P176" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="Q176" s="1">
+        <v>0</v>
+      </c>
+      <c r="R176" t="s">
+        <v>1083</v>
+      </c>
+      <c r="S176">
+        <v>1</v>
+      </c>
+      <c r="T176">
+        <v>2008</v>
+      </c>
+      <c r="U176" s="1">
         <f t="shared" si="8"/>
-        <v>NA</v>
+        <v>2</v>
+      </c>
+      <c r="V176" s="1">
+        <v>0</v>
+      </c>
+      <c r="W176" s="1">
+        <v>0</v>
+      </c>
+      <c r="X176" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y176" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z176" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA176" s="1">
+        <v>1</v>
       </c>
       <c r="AB176" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>NA</v>
+        <v>conceptual</v>
+      </c>
+      <c r="AC176" t="s">
+        <v>12</v>
       </c>
       <c r="AD176" s="1" t="str">
         <f t="shared" si="10"/>
@@ -18107,6 +18591,18 @@
       <c r="M177" t="s">
         <v>928</v>
       </c>
+      <c r="N177">
+        <v>1</v>
+      </c>
+      <c r="O177">
+        <v>0</v>
+      </c>
+      <c r="P177" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q177" s="1">
+        <v>0</v>
+      </c>
       <c r="U177" s="1" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
@@ -18160,13 +18656,55 @@
       <c r="M178" t="s">
         <v>932</v>
       </c>
-      <c r="U178" s="1" t="str">
+      <c r="N178">
+        <v>1</v>
+      </c>
+      <c r="O178">
+        <v>1</v>
+      </c>
+      <c r="P178" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="Q178" s="1">
+        <v>0</v>
+      </c>
+      <c r="R178" t="s">
+        <v>1085</v>
+      </c>
+      <c r="S178">
+        <v>1</v>
+      </c>
+      <c r="T178">
+        <v>1983</v>
+      </c>
+      <c r="U178" s="1">
         <f t="shared" si="8"/>
-        <v>NA</v>
+        <v>13</v>
+      </c>
+      <c r="V178" s="1">
+        <v>0</v>
+      </c>
+      <c r="W178" s="1">
+        <v>0</v>
+      </c>
+      <c r="X178" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y178" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z178">
+        <v>1</v>
+      </c>
+      <c r="AA178">
+        <v>1</v>
       </c>
       <c r="AB178" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>NA</v>
+        <v>conceptual</v>
+      </c>
+      <c r="AC178" t="s">
+        <v>12</v>
       </c>
       <c r="AD178" s="1" t="str">
         <f t="shared" si="10"/>
@@ -18213,13 +18751,55 @@
       <c r="M179" t="s">
         <v>936</v>
       </c>
-      <c r="U179" s="1" t="str">
+      <c r="N179">
+        <v>1</v>
+      </c>
+      <c r="O179">
+        <v>1</v>
+      </c>
+      <c r="P179" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="Q179" s="1">
+        <v>0</v>
+      </c>
+      <c r="R179" t="s">
+        <v>1086</v>
+      </c>
+      <c r="S179">
+        <v>1</v>
+      </c>
+      <c r="T179">
+        <v>2003</v>
+      </c>
+      <c r="U179" s="1">
         <f t="shared" si="8"/>
-        <v>NA</v>
+        <v>14</v>
+      </c>
+      <c r="V179" s="1">
+        <v>0</v>
+      </c>
+      <c r="W179" s="1">
+        <v>0</v>
+      </c>
+      <c r="X179" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y179" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z179" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA179" s="1">
+        <v>0</v>
       </c>
       <c r="AB179" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>NA</v>
+        <v>partial</v>
+      </c>
+      <c r="AC179" t="s">
+        <v>12</v>
       </c>
       <c r="AD179" s="1" t="str">
         <f t="shared" si="10"/>
@@ -18266,6 +18846,18 @@
       <c r="M180" t="s">
         <v>940</v>
       </c>
+      <c r="N180">
+        <v>1</v>
+      </c>
+      <c r="O180">
+        <v>0</v>
+      </c>
+      <c r="P180" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q180" s="1">
+        <v>1</v>
+      </c>
       <c r="U180" s="1" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
@@ -18319,6 +18911,18 @@
       <c r="M181" t="s">
         <v>944</v>
       </c>
+      <c r="N181">
+        <v>1</v>
+      </c>
+      <c r="O181">
+        <v>0</v>
+      </c>
+      <c r="P181" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q181" s="1">
+        <v>0</v>
+      </c>
       <c r="U181" s="1" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
@@ -18372,6 +18976,19 @@
       <c r="M182" t="s">
         <v>948</v>
       </c>
+      <c r="N182">
+        <v>1</v>
+      </c>
+      <c r="O182">
+        <v>0</v>
+      </c>
+      <c r="P182" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q182" s="1">
+        <v>0</v>
+      </c>
+      <c r="R182" s="1"/>
       <c r="U182" s="1" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
@@ -18425,13 +19042,55 @@
       <c r="M183" t="s">
         <v>952</v>
       </c>
-      <c r="U183" s="1" t="str">
+      <c r="N183">
+        <v>1</v>
+      </c>
+      <c r="O183">
+        <v>1</v>
+      </c>
+      <c r="P183" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="Q183" s="1">
+        <v>0</v>
+      </c>
+      <c r="R183" t="s">
+        <v>1087</v>
+      </c>
+      <c r="S183">
+        <v>0</v>
+      </c>
+      <c r="T183">
+        <v>1975</v>
+      </c>
+      <c r="U183" s="1">
         <f t="shared" si="8"/>
-        <v>NA</v>
+        <v>30</v>
+      </c>
+      <c r="V183" s="1">
+        <v>0</v>
+      </c>
+      <c r="W183" s="1">
+        <v>0</v>
+      </c>
+      <c r="X183" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y183" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z183" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA183" s="1">
+        <v>1</v>
       </c>
       <c r="AB183" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>NA</v>
+        <v>partial</v>
+      </c>
+      <c r="AC183" t="s">
+        <v>12</v>
       </c>
       <c r="AD183" s="1" t="str">
         <f t="shared" si="10"/>
@@ -18478,13 +19137,55 @@
       <c r="M184" t="s">
         <v>956</v>
       </c>
-      <c r="U184" s="1" t="str">
+      <c r="N184">
+        <v>1</v>
+      </c>
+      <c r="O184">
+        <v>1</v>
+      </c>
+      <c r="P184" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="Q184" s="1">
+        <v>0</v>
+      </c>
+      <c r="R184" t="s">
+        <v>1088</v>
+      </c>
+      <c r="S184">
+        <v>0</v>
+      </c>
+      <c r="T184">
+        <v>1994</v>
+      </c>
+      <c r="U184" s="1">
         <f t="shared" si="8"/>
-        <v>NA</v>
+        <v>12</v>
+      </c>
+      <c r="V184">
+        <v>0</v>
+      </c>
+      <c r="W184">
+        <v>0</v>
+      </c>
+      <c r="X184">
+        <v>1</v>
+      </c>
+      <c r="Y184">
+        <v>0</v>
+      </c>
+      <c r="Z184">
+        <v>1</v>
+      </c>
+      <c r="AA184">
+        <v>0</v>
       </c>
       <c r="AB184" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>NA</v>
+        <v>conceptual</v>
+      </c>
+      <c r="AC184" t="s">
+        <v>12</v>
       </c>
       <c r="AD184" s="1" t="str">
         <f t="shared" si="10"/>
@@ -18531,13 +19232,55 @@
       <c r="M185" t="s">
         <v>960</v>
       </c>
-      <c r="U185" s="1" t="str">
+      <c r="N185">
+        <v>1</v>
+      </c>
+      <c r="O185">
+        <v>1</v>
+      </c>
+      <c r="P185" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="Q185" s="1">
+        <v>0</v>
+      </c>
+      <c r="R185" t="s">
+        <v>1090</v>
+      </c>
+      <c r="S185">
+        <v>0</v>
+      </c>
+      <c r="T185">
+        <v>2011</v>
+      </c>
+      <c r="U185" s="1">
         <f t="shared" si="8"/>
-        <v>NA</v>
+        <v>2</v>
+      </c>
+      <c r="V185" s="1">
+        <v>0</v>
+      </c>
+      <c r="W185" s="1">
+        <v>1</v>
+      </c>
+      <c r="X185" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y185" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z185" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA185" s="1">
+        <v>0</v>
       </c>
       <c r="AB185" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>NA</v>
+        <v>conceptual</v>
+      </c>
+      <c r="AC185" t="s">
+        <v>1089</v>
       </c>
       <c r="AD185" s="1" t="str">
         <f t="shared" si="10"/>
@@ -18584,6 +19327,18 @@
       <c r="M186" t="s">
         <v>964</v>
       </c>
+      <c r="N186">
+        <v>1</v>
+      </c>
+      <c r="O186">
+        <v>0</v>
+      </c>
+      <c r="P186" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q186" s="1">
+        <v>1</v>
+      </c>
       <c r="U186" s="1" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
@@ -18637,13 +19392,55 @@
       <c r="M187" t="s">
         <v>968</v>
       </c>
-      <c r="U187" s="1" t="str">
+      <c r="N187">
+        <v>1</v>
+      </c>
+      <c r="O187">
+        <v>1</v>
+      </c>
+      <c r="P187" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="Q187" s="1">
+        <v>1</v>
+      </c>
+      <c r="R187" t="s">
+        <v>1091</v>
+      </c>
+      <c r="S187">
+        <v>0</v>
+      </c>
+      <c r="T187">
+        <v>2013</v>
+      </c>
+      <c r="U187" s="1">
         <f t="shared" si="8"/>
-        <v>NA</v>
+        <v>7</v>
+      </c>
+      <c r="V187" s="1">
+        <v>0</v>
+      </c>
+      <c r="W187" s="1">
+        <v>0</v>
+      </c>
+      <c r="X187" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y187" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z187" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA187" s="1">
+        <v>0</v>
       </c>
       <c r="AB187" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>NA</v>
+        <v>partial</v>
+      </c>
+      <c r="AC187" t="s">
+        <v>12</v>
       </c>
       <c r="AD187" s="1" t="str">
         <f t="shared" si="10"/>
@@ -18690,13 +19487,55 @@
       <c r="M188" t="s">
         <v>972</v>
       </c>
-      <c r="U188" s="1" t="str">
+      <c r="N188">
+        <v>1</v>
+      </c>
+      <c r="O188">
+        <v>1</v>
+      </c>
+      <c r="P188" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q188" s="1">
+        <v>0</v>
+      </c>
+      <c r="R188" t="s">
+        <v>196</v>
+      </c>
+      <c r="S188">
+        <v>1</v>
+      </c>
+      <c r="T188">
+        <v>2003</v>
+      </c>
+      <c r="U188" s="1">
         <f t="shared" si="8"/>
-        <v>NA</v>
+        <v>0</v>
+      </c>
+      <c r="V188" s="1">
+        <v>0</v>
+      </c>
+      <c r="W188" s="1">
+        <v>0</v>
+      </c>
+      <c r="X188" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y188" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z188" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA188" s="1">
+        <v>0</v>
       </c>
       <c r="AB188" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>NA</v>
+        <v>conceptual</v>
+      </c>
+      <c r="AC188" t="s">
+        <v>198</v>
       </c>
       <c r="AD188" s="1" t="str">
         <f t="shared" si="10"/>
@@ -18743,6 +19582,18 @@
       <c r="M189" t="s">
         <v>976</v>
       </c>
+      <c r="N189">
+        <v>1</v>
+      </c>
+      <c r="O189">
+        <v>0</v>
+      </c>
+      <c r="P189" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q189" s="1">
+        <v>0</v>
+      </c>
       <c r="U189" s="1" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
@@ -18796,13 +19647,55 @@
       <c r="M190" t="s">
         <v>980</v>
       </c>
-      <c r="U190" s="1" t="str">
+      <c r="N190">
+        <v>1</v>
+      </c>
+      <c r="O190">
+        <v>1</v>
+      </c>
+      <c r="P190" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q190" s="1">
+        <v>0</v>
+      </c>
+      <c r="R190" t="s">
+        <v>1092</v>
+      </c>
+      <c r="S190">
+        <v>0</v>
+      </c>
+      <c r="T190">
+        <v>1994</v>
+      </c>
+      <c r="U190" s="1">
         <f t="shared" si="8"/>
-        <v>NA</v>
+        <v>4</v>
+      </c>
+      <c r="V190" s="1">
+        <v>0</v>
+      </c>
+      <c r="W190" s="1">
+        <v>0</v>
+      </c>
+      <c r="X190">
+        <v>1</v>
+      </c>
+      <c r="Y190">
+        <v>0</v>
+      </c>
+      <c r="Z190">
+        <v>0</v>
+      </c>
+      <c r="AA190">
+        <v>0</v>
       </c>
       <c r="AB190" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>NA</v>
+        <v>partial</v>
+      </c>
+      <c r="AC190" t="s">
+        <v>12</v>
       </c>
       <c r="AD190" s="1" t="str">
         <f t="shared" si="10"/>
@@ -18849,6 +19742,18 @@
       <c r="M191" t="s">
         <v>984</v>
       </c>
+      <c r="N191">
+        <v>1</v>
+      </c>
+      <c r="O191">
+        <v>0</v>
+      </c>
+      <c r="P191" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q191" s="1">
+        <v>1</v>
+      </c>
       <c r="U191" s="1" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
@@ -18902,17 +19807,58 @@
       <c r="M192" t="s">
         <v>988</v>
       </c>
-      <c r="U192" s="1" t="str">
+      <c r="N192">
+        <v>1</v>
+      </c>
+      <c r="O192">
+        <v>1</v>
+      </c>
+      <c r="P192" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q192" s="1">
+        <v>0</v>
+      </c>
+      <c r="R192" t="s">
+        <v>1093</v>
+      </c>
+      <c r="S192">
+        <v>0</v>
+      </c>
+      <c r="T192">
+        <v>1998</v>
+      </c>
+      <c r="U192" s="1">
         <f t="shared" si="8"/>
-        <v>NA</v>
+        <v>7</v>
+      </c>
+      <c r="V192" s="1">
+        <v>0</v>
+      </c>
+      <c r="W192" s="1">
+        <v>0</v>
+      </c>
+      <c r="X192">
+        <v>0</v>
+      </c>
+      <c r="Y192">
+        <v>0</v>
+      </c>
+      <c r="Z192">
+        <v>0</v>
+      </c>
+      <c r="AA192">
+        <v>0</v>
       </c>
       <c r="AB192" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>NA</v>
-      </c>
-      <c r="AD192" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>NA</v>
+        <v>direct</v>
+      </c>
+      <c r="AC192" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD192" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:30" x14ac:dyDescent="0.3">
@@ -18955,13 +19901,55 @@
       <c r="M193" t="s">
         <v>993</v>
       </c>
-      <c r="U193" s="1" t="str">
+      <c r="N193">
+        <v>1</v>
+      </c>
+      <c r="O193">
+        <v>1</v>
+      </c>
+      <c r="P193" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q193" s="1">
+        <v>1</v>
+      </c>
+      <c r="R193" t="s">
+        <v>196</v>
+      </c>
+      <c r="S193">
+        <v>1</v>
+      </c>
+      <c r="T193">
+        <v>2003</v>
+      </c>
+      <c r="U193" s="1">
         <f t="shared" si="8"/>
-        <v>NA</v>
+        <v>0</v>
+      </c>
+      <c r="V193" s="1">
+        <v>0</v>
+      </c>
+      <c r="W193" s="1">
+        <v>0</v>
+      </c>
+      <c r="X193" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y193" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z193">
+        <v>1</v>
+      </c>
+      <c r="AA193">
+        <v>0</v>
       </c>
       <c r="AB193" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>NA</v>
+        <v>partial</v>
+      </c>
+      <c r="AC193" t="s">
+        <v>198</v>
       </c>
       <c r="AD193" s="1" t="str">
         <f t="shared" si="10"/>
@@ -19008,13 +19996,55 @@
       <c r="M194" t="s">
         <v>997</v>
       </c>
-      <c r="U194" s="1" t="str">
+      <c r="N194">
+        <v>1</v>
+      </c>
+      <c r="O194">
+        <v>1</v>
+      </c>
+      <c r="P194" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q194" s="1">
+        <v>0</v>
+      </c>
+      <c r="R194" t="s">
+        <v>196</v>
+      </c>
+      <c r="S194">
+        <v>1</v>
+      </c>
+      <c r="T194">
+        <v>2017</v>
+      </c>
+      <c r="U194" s="1">
         <f t="shared" si="8"/>
-        <v>NA</v>
+        <v>0</v>
+      </c>
+      <c r="V194" s="1">
+        <v>0</v>
+      </c>
+      <c r="W194" s="1">
+        <v>0</v>
+      </c>
+      <c r="X194" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y194" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z194" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA194">
+        <v>1</v>
       </c>
       <c r="AB194" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>NA</v>
+        <v>partial</v>
+      </c>
+      <c r="AC194" t="s">
+        <v>12</v>
       </c>
       <c r="AD194" s="1" t="str">
         <f t="shared" si="10"/>
@@ -19061,13 +20091,55 @@
       <c r="M195" t="s">
         <v>1001</v>
       </c>
-      <c r="U195" s="1" t="str">
+      <c r="N195">
+        <v>1</v>
+      </c>
+      <c r="O195">
+        <v>1</v>
+      </c>
+      <c r="P195" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q195" s="1">
+        <v>0</v>
+      </c>
+      <c r="R195" t="s">
+        <v>196</v>
+      </c>
+      <c r="S195">
+        <v>1</v>
+      </c>
+      <c r="T195">
+        <v>2013</v>
+      </c>
+      <c r="U195" s="1">
         <f t="shared" ref="U195:U211" si="11">IF(O195=1,G195-T195,"NA")</f>
-        <v>NA</v>
+        <v>0</v>
+      </c>
+      <c r="V195" s="1">
+        <v>0</v>
+      </c>
+      <c r="W195" s="1">
+        <v>0</v>
+      </c>
+      <c r="X195" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y195" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z195" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA195" s="1">
+        <v>0</v>
       </c>
       <c r="AB195" s="1" t="str">
         <f t="shared" ref="AB195:AB211" si="12">IF(O195=1, IF(SUM(V195:AA195)=0, "direct", IF(SUM(V195:AA195)=1, "partial", "conceptual")),"NA")</f>
-        <v>NA</v>
+        <v>partial</v>
+      </c>
+      <c r="AC195" t="s">
+        <v>1094</v>
       </c>
       <c r="AD195" s="1" t="str">
         <f t="shared" ref="AD195:AD211" si="13">IF(AB195="direct", "check", "NA")</f>
@@ -19114,13 +20186,55 @@
       <c r="M196" t="s">
         <v>1005</v>
       </c>
-      <c r="U196" s="1" t="str">
+      <c r="N196">
+        <v>1</v>
+      </c>
+      <c r="O196">
+        <v>1</v>
+      </c>
+      <c r="P196" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="Q196" s="1">
+        <v>0</v>
+      </c>
+      <c r="R196" t="s">
+        <v>1095</v>
+      </c>
+      <c r="S196">
+        <v>0</v>
+      </c>
+      <c r="T196">
+        <v>1984</v>
+      </c>
+      <c r="U196" s="1">
         <f t="shared" si="11"/>
-        <v>NA</v>
+        <v>14</v>
+      </c>
+      <c r="V196" s="1">
+        <v>0</v>
+      </c>
+      <c r="W196" s="1">
+        <v>0</v>
+      </c>
+      <c r="X196" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y196" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z196" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA196" s="1">
+        <v>0</v>
       </c>
       <c r="AB196" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>NA</v>
+        <v>partial</v>
+      </c>
+      <c r="AC196" t="s">
+        <v>198</v>
       </c>
       <c r="AD196" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19167,13 +20281,55 @@
       <c r="M197" t="s">
         <v>1009</v>
       </c>
-      <c r="U197" s="1" t="str">
+      <c r="N197">
+        <v>1</v>
+      </c>
+      <c r="O197">
+        <v>1</v>
+      </c>
+      <c r="P197" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q197" s="1">
+        <v>0</v>
+      </c>
+      <c r="R197" t="s">
+        <v>196</v>
+      </c>
+      <c r="S197">
+        <v>1</v>
+      </c>
+      <c r="T197">
+        <v>2008</v>
+      </c>
+      <c r="U197" s="1">
         <f t="shared" si="11"/>
-        <v>NA</v>
+        <v>0</v>
+      </c>
+      <c r="V197" s="1">
+        <v>0</v>
+      </c>
+      <c r="W197" s="1">
+        <v>1</v>
+      </c>
+      <c r="X197" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y197" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z197" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA197" s="1">
+        <v>0</v>
       </c>
       <c r="AB197" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>NA</v>
+        <v>partial</v>
+      </c>
+      <c r="AC197" t="s">
+        <v>1096</v>
       </c>
       <c r="AD197" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19220,13 +20376,55 @@
       <c r="M198" t="s">
         <v>1013</v>
       </c>
-      <c r="U198" s="1" t="str">
+      <c r="N198">
+        <v>1</v>
+      </c>
+      <c r="O198">
+        <v>1</v>
+      </c>
+      <c r="P198" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q198" s="1">
+        <v>0</v>
+      </c>
+      <c r="R198" t="s">
+        <v>196</v>
+      </c>
+      <c r="S198">
+        <v>1</v>
+      </c>
+      <c r="T198">
+        <v>2019</v>
+      </c>
+      <c r="U198" s="1">
         <f t="shared" si="11"/>
-        <v>NA</v>
+        <v>0</v>
+      </c>
+      <c r="V198" s="1">
+        <v>0</v>
+      </c>
+      <c r="W198" s="1">
+        <v>0</v>
+      </c>
+      <c r="X198" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y198" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z198" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA198" s="1">
+        <v>0</v>
       </c>
       <c r="AB198" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>NA</v>
+        <v>partial</v>
+      </c>
+      <c r="AC198" t="s">
+        <v>12</v>
       </c>
       <c r="AD198" s="1" t="str">
         <f t="shared" si="13"/>
@@ -19273,13 +20471,55 @@
       <c r="M199" t="s">
         <v>1017</v>
       </c>
-      <c r="U199" s="1" t="str">
+      <c r="N199">
+        <v>1</v>
+      </c>
+      <c r="O199">
+        <v>1</v>
+      </c>
+      <c r="P199" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q199" s="1">
+        <v>0</v>
+      </c>
+      <c r="R199" t="s">
+        <v>196</v>
+      </c>
+      <c r="S199">
+        <v>1</v>
+      </c>
+      <c r="T199">
+        <v>2016</v>
+      </c>
+      <c r="U199" s="1">
         <f t="shared" si="11"/>
-        <v>NA</v>
+        <v>0</v>
+      </c>
+      <c r="V199" s="1">
+        <v>0</v>
+      </c>
+      <c r="W199" s="1">
+        <v>0</v>
+      </c>
+      <c r="X199" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y199" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z199" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA199" s="1">
+        <v>0</v>
       </c>
       <c r="AB199" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>NA</v>
+        <v>conceptual</v>
+      </c>
+      <c r="AC199" t="s">
+        <v>801</v>
       </c>
       <c r="AD199" s="1" t="str">
         <f t="shared" si="13"/>

--- a/Coding_Articles.xlsx
+++ b/Coding_Articles.xlsx
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="1097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="1103">
   <si>
     <t>Replication?</t>
   </si>
@@ -3771,7 +3771,25 @@
     <t>SCHREUDER, R., FLORES D'ARCAIS, G. B., &amp; GLAZENBORG, G. (1984). Effects of perceptual and conceptual similarity in semantic priming. Psychological Research, 45, 339-354.</t>
   </si>
   <si>
-    <t>Spanish, previously Spanish-Basque</t>
+    <t>Towse, J. N., Hitch, G. J., &amp; Hutton, U. (2000). On the interpretation of working memory span in adults. Memory &amp; Cognition, 28, 341–348.</t>
+  </si>
+  <si>
+    <t>Spanish (previously Spanish-Basque)</t>
+  </si>
+  <si>
+    <t>Japanese (previously English)</t>
+  </si>
+  <si>
+    <t>Schotter ER. Synonyms provide semantic preview benefit in English. Journal of Memory and Language. 2013; 69:619–633.</t>
+  </si>
+  <si>
+    <t>Brainerd, C. J., Reyna, V. F., &amp; Kneer, R. (1995). Falserecognition reversal: When similarity is distinctive. Journal of Memory and Language, 34, 157–185.</t>
+  </si>
+  <si>
+    <t>Stone, G. O., Vanhoy, M. D., &amp; Van Orden, G. C. (1997). Perception is a two-way street: Feedforward and feedback phonology in visual word recognition. Journal of Memory and Language, 36, 337–359.</t>
+  </si>
+  <si>
+    <t>French (previously English)</t>
   </si>
 </sst>
 </file>
@@ -4106,8 +4124,8 @@
   <dimension ref="A1:AH246"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N200" sqref="N200"/>
+      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P211" sqref="P211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20329,7 +20347,7 @@
         <v>partial</v>
       </c>
       <c r="AC197" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="AD197" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20566,13 +20584,55 @@
       <c r="M200" t="s">
         <v>1021</v>
       </c>
-      <c r="U200" s="1" t="str">
+      <c r="N200">
+        <v>1</v>
+      </c>
+      <c r="O200">
+        <v>1</v>
+      </c>
+      <c r="P200" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="Q200" s="1">
+        <v>0</v>
+      </c>
+      <c r="R200" t="s">
+        <v>1096</v>
+      </c>
+      <c r="S200">
+        <v>0</v>
+      </c>
+      <c r="T200">
+        <v>2000</v>
+      </c>
+      <c r="U200" s="1">
         <f t="shared" si="11"/>
-        <v>NA</v>
+        <v>4</v>
+      </c>
+      <c r="V200" s="1">
+        <v>0</v>
+      </c>
+      <c r="W200" s="1">
+        <v>1</v>
+      </c>
+      <c r="X200" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y200" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z200" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA200" s="1">
+        <v>0</v>
       </c>
       <c r="AB200" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>NA</v>
+        <v>conceptual</v>
+      </c>
+      <c r="AC200" t="s">
+        <v>1098</v>
       </c>
       <c r="AD200" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20619,6 +20679,18 @@
       <c r="M201" t="s">
         <v>1025</v>
       </c>
+      <c r="N201">
+        <v>1</v>
+      </c>
+      <c r="O201">
+        <v>0</v>
+      </c>
+      <c r="P201" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q201" s="1">
+        <v>1</v>
+      </c>
       <c r="U201" s="1" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
@@ -20672,13 +20744,55 @@
       <c r="M202" t="s">
         <v>1029</v>
       </c>
-      <c r="U202" s="1" t="str">
+      <c r="N202">
+        <v>1</v>
+      </c>
+      <c r="O202">
+        <v>1</v>
+      </c>
+      <c r="P202" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="Q202" s="1">
+        <v>1</v>
+      </c>
+      <c r="R202" t="s">
+        <v>1099</v>
+      </c>
+      <c r="S202">
+        <v>1</v>
+      </c>
+      <c r="T202">
+        <v>2013</v>
+      </c>
+      <c r="U202" s="1">
         <f t="shared" si="11"/>
-        <v>NA</v>
+        <v>2</v>
+      </c>
+      <c r="V202" s="1">
+        <v>0</v>
+      </c>
+      <c r="W202" s="1">
+        <v>0</v>
+      </c>
+      <c r="X202" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y202" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z202" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA202" s="1">
+        <v>1</v>
       </c>
       <c r="AB202" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>NA</v>
+        <v>partial</v>
+      </c>
+      <c r="AC202" t="s">
+        <v>12</v>
       </c>
       <c r="AD202" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20725,13 +20839,55 @@
       <c r="M203" t="s">
         <v>1033</v>
       </c>
-      <c r="U203" s="1" t="str">
+      <c r="N203">
+        <v>1</v>
+      </c>
+      <c r="O203">
+        <v>1</v>
+      </c>
+      <c r="P203" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q203" s="1">
+        <v>0</v>
+      </c>
+      <c r="R203" t="s">
+        <v>196</v>
+      </c>
+      <c r="S203">
+        <v>1</v>
+      </c>
+      <c r="T203">
+        <v>2000</v>
+      </c>
+      <c r="U203" s="1">
         <f t="shared" si="11"/>
-        <v>NA</v>
+        <v>0</v>
+      </c>
+      <c r="V203" s="1">
+        <v>0</v>
+      </c>
+      <c r="W203" s="1">
+        <v>0</v>
+      </c>
+      <c r="X203" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y203" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z203" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA203" s="1">
+        <v>0</v>
       </c>
       <c r="AB203" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>NA</v>
+        <v>conceptual</v>
+      </c>
+      <c r="AC203" t="s">
+        <v>12</v>
       </c>
       <c r="AD203" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20778,6 +20934,18 @@
       <c r="M204" t="s">
         <v>1037</v>
       </c>
+      <c r="N204">
+        <v>1</v>
+      </c>
+      <c r="O204">
+        <v>0</v>
+      </c>
+      <c r="P204" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q204" s="1">
+        <v>0</v>
+      </c>
       <c r="U204" s="1" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
@@ -20831,13 +20999,55 @@
       <c r="M205" t="s">
         <v>1041</v>
       </c>
-      <c r="U205" s="1" t="str">
+      <c r="N205">
+        <v>1</v>
+      </c>
+      <c r="O205">
+        <v>1</v>
+      </c>
+      <c r="P205" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q205" s="1">
+        <v>1</v>
+      </c>
+      <c r="R205" t="s">
+        <v>196</v>
+      </c>
+      <c r="S205">
+        <v>1</v>
+      </c>
+      <c r="T205">
+        <v>2010</v>
+      </c>
+      <c r="U205" s="1">
         <f t="shared" si="11"/>
-        <v>NA</v>
+        <v>0</v>
+      </c>
+      <c r="V205" s="1">
+        <v>0</v>
+      </c>
+      <c r="W205" s="1">
+        <v>0</v>
+      </c>
+      <c r="X205" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y205" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z205" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA205">
+        <v>1</v>
       </c>
       <c r="AB205" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>NA</v>
+        <v>conceptual</v>
+      </c>
+      <c r="AC205" t="s">
+        <v>12</v>
       </c>
       <c r="AD205" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20884,6 +21094,18 @@
       <c r="M206" t="s">
         <v>1045</v>
       </c>
+      <c r="N206">
+        <v>1</v>
+      </c>
+      <c r="O206">
+        <v>0</v>
+      </c>
+      <c r="P206" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q206" s="1">
+        <v>1</v>
+      </c>
       <c r="U206" s="1" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
@@ -20937,13 +21159,55 @@
       <c r="M207" t="s">
         <v>1049</v>
       </c>
-      <c r="U207" s="1" t="str">
+      <c r="N207">
+        <v>1</v>
+      </c>
+      <c r="O207">
+        <v>1</v>
+      </c>
+      <c r="P207" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q207" s="1">
+        <v>0</v>
+      </c>
+      <c r="R207" t="s">
+        <v>1100</v>
+      </c>
+      <c r="S207">
+        <v>0</v>
+      </c>
+      <c r="T207">
+        <v>1995</v>
+      </c>
+      <c r="U207" s="1">
         <f t="shared" si="11"/>
-        <v>NA</v>
+        <v>5</v>
+      </c>
+      <c r="V207" s="1">
+        <v>0</v>
+      </c>
+      <c r="W207" s="1">
+        <v>0</v>
+      </c>
+      <c r="X207">
+        <v>1</v>
+      </c>
+      <c r="Y207">
+        <v>0</v>
+      </c>
+      <c r="Z207">
+        <v>1</v>
+      </c>
+      <c r="AA207">
+        <v>0</v>
       </c>
       <c r="AB207" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>NA</v>
+        <v>conceptual</v>
+      </c>
+      <c r="AC207" t="s">
+        <v>12</v>
       </c>
       <c r="AD207" s="1" t="str">
         <f t="shared" si="13"/>
@@ -20990,6 +21254,18 @@
       <c r="M208" t="s">
         <v>1053</v>
       </c>
+      <c r="N208">
+        <v>1</v>
+      </c>
+      <c r="O208">
+        <v>0</v>
+      </c>
+      <c r="P208" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q208" s="1">
+        <v>0</v>
+      </c>
       <c r="U208" s="1" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
@@ -21043,6 +21319,18 @@
       <c r="M209" t="s">
         <v>1057</v>
       </c>
+      <c r="N209">
+        <v>1</v>
+      </c>
+      <c r="O209">
+        <v>0</v>
+      </c>
+      <c r="P209" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q209" s="1">
+        <v>0</v>
+      </c>
       <c r="U209" s="1" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
@@ -21096,6 +21384,18 @@
       <c r="M210" t="s">
         <v>1061</v>
       </c>
+      <c r="N210">
+        <v>1</v>
+      </c>
+      <c r="O210">
+        <v>0</v>
+      </c>
+      <c r="P210" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q210" s="1">
+        <v>0</v>
+      </c>
       <c r="U210" s="1" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
@@ -21149,13 +21449,55 @@
       <c r="M211" t="s">
         <v>1065</v>
       </c>
-      <c r="U211" s="1" t="str">
+      <c r="N211">
+        <v>1</v>
+      </c>
+      <c r="O211">
+        <v>1</v>
+      </c>
+      <c r="P211" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="Q211" s="1">
+        <v>0</v>
+      </c>
+      <c r="R211" t="s">
+        <v>1101</v>
+      </c>
+      <c r="S211">
+        <v>0</v>
+      </c>
+      <c r="T211">
+        <v>1997</v>
+      </c>
+      <c r="U211" s="1">
         <f t="shared" si="11"/>
-        <v>NA</v>
+        <v>0</v>
+      </c>
+      <c r="V211" s="1">
+        <v>0</v>
+      </c>
+      <c r="W211">
+        <v>1</v>
+      </c>
+      <c r="X211">
+        <v>1</v>
+      </c>
+      <c r="Y211">
+        <v>0</v>
+      </c>
+      <c r="Z211">
+        <v>0</v>
+      </c>
+      <c r="AA211">
+        <v>1</v>
       </c>
       <c r="AB211" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>NA</v>
+        <v>conceptual</v>
+      </c>
+      <c r="AC211" t="s">
+        <v>1102</v>
       </c>
       <c r="AD211" s="1" t="str">
         <f t="shared" si="13"/>

--- a/Coding_Articles.xlsx
+++ b/Coding_Articles.xlsx
@@ -4228,7 +4228,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH2" sqref="AH2:AH211"/>
+      <selection pane="bottomLeft" activeCell="S213" sqref="S213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4413,7 +4413,7 @@
         <v>2006</v>
       </c>
       <c r="V2" s="1">
-        <f t="shared" ref="V2:V12" si="0">IF(O2=1,G2-U2,"NA")</f>
+        <f t="shared" ref="V2:V13" si="0">IF(O2=1,G2-U2,"NA")</f>
         <v>2</v>
       </c>
       <c r="W2" s="1">
@@ -4833,7 +4833,10 @@
         <v>0</v>
       </c>
       <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
+      <c r="S6" s="1" t="str">
+        <f t="shared" ref="S6:S8" si="4">IF(L6=1,D6-R6,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1" t="str">
@@ -4916,7 +4919,10 @@
         <v>1</v>
       </c>
       <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
+      <c r="S7" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1" t="str">
@@ -4999,7 +5005,10 @@
         <v>0</v>
       </c>
       <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
+      <c r="S8" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1" t="str">
@@ -5191,7 +5200,10 @@
         <v>0</v>
       </c>
       <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
+      <c r="S10" s="1" t="str">
+        <f t="shared" ref="S10:S11" si="5">IF(L10=1,D10-R10,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1" t="str">
@@ -5274,7 +5286,10 @@
         <v>0</v>
       </c>
       <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
+      <c r="S11" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>NA</v>
+      </c>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1" t="str">
@@ -5466,10 +5481,16 @@
         <v>0</v>
       </c>
       <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
+      <c r="S13" s="1" t="str">
+        <f t="shared" ref="S13" si="6">IF(L13=1,D13-R13,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
+      <c r="V13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
@@ -5558,7 +5579,7 @@
         <v>1983</v>
       </c>
       <c r="V14" s="1">
-        <f t="shared" ref="V14:V53" si="4">IF(O14=1,G14-U14,"NA")</f>
+        <f t="shared" ref="V14:V53" si="7">IF(O14=1,G14-U14,"NA")</f>
         <v>13</v>
       </c>
       <c r="W14" s="1">
@@ -5655,11 +5676,14 @@
         <v>0</v>
       </c>
       <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
+      <c r="S15" s="1" t="str">
+        <f t="shared" ref="S15" si="8">IF(L15=1,D15-R15,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="W15" s="1"/>
@@ -5750,7 +5774,7 @@
         <v>2007</v>
       </c>
       <c r="V16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="W16" s="1">
@@ -5859,7 +5883,7 @@
         <v>2000</v>
       </c>
       <c r="V17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W17" s="1">
@@ -5964,7 +5988,7 @@
         <v>1981</v>
       </c>
       <c r="V18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="W18" s="1">
@@ -6073,7 +6097,7 @@
         <v>2005</v>
       </c>
       <c r="V19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="W19" s="1">
@@ -6182,7 +6206,7 @@
         <v>2005</v>
       </c>
       <c r="V20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="W20" s="1">
@@ -6291,7 +6315,7 @@
         <v>2004</v>
       </c>
       <c r="V21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W21" s="1">
@@ -6396,7 +6420,7 @@
         <v>1983</v>
       </c>
       <c r="V22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="W22" s="1">
@@ -6505,7 +6529,7 @@
         <v>1987</v>
       </c>
       <c r="V23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="W23" s="1">
@@ -6600,8 +6624,12 @@
       <c r="Q24" s="1">
         <v>0</v>
       </c>
+      <c r="S24" s="1" t="str">
+        <f t="shared" ref="S24" si="9">IF(L24=1,D24-R24,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V24" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AC24" s="1" t="str">
@@ -6682,7 +6710,7 @@
         <v>2000</v>
       </c>
       <c r="V25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W25" s="1">
@@ -6771,8 +6799,12 @@
       <c r="Q26" s="1">
         <v>0</v>
       </c>
+      <c r="S26" s="1" t="str">
+        <f t="shared" ref="S26:S28" si="10">IF(L26=1,D26-R26,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V26" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AC26" s="1" t="str">
@@ -6840,8 +6872,12 @@
       <c r="Q27" s="1">
         <v>0</v>
       </c>
+      <c r="S27" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
       <c r="V27" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AC27" s="1" t="str">
@@ -6909,8 +6945,12 @@
       <c r="Q28" s="1">
         <v>0</v>
       </c>
+      <c r="S28" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>NA</v>
+      </c>
       <c r="V28" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AC28" s="1" t="str">
@@ -6991,7 +7031,7 @@
         <v>1992</v>
       </c>
       <c r="V29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="W29" s="1">
@@ -7099,7 +7139,7 @@
         <v>2009</v>
       </c>
       <c r="V30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W30" s="1">
@@ -7201,7 +7241,7 @@
         <v>1998</v>
       </c>
       <c r="V31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="W31" s="1">
@@ -7296,8 +7336,12 @@
       <c r="Q32" s="1">
         <v>0</v>
       </c>
+      <c r="S32" s="1" t="str">
+        <f t="shared" ref="S32" si="11">IF(L32=1,D32-R32,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V32" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AC32" s="1" t="str">
@@ -7378,7 +7422,7 @@
         <v>1995</v>
       </c>
       <c r="V33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="W33" s="1">
@@ -7486,7 +7530,7 @@
         <v>2005</v>
       </c>
       <c r="V34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W34" s="1">
@@ -7508,7 +7552,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="1" t="str">
-        <f t="shared" ref="AC34:AC65" si="5">IF(O34=1, IF(SUM(W34:AB34)=0, "direct", IF(SUM(W34:AB34)=1, "partial", "conceptual")),"NA")</f>
+        <f t="shared" ref="AC34:AC65" si="12">IF(O34=1, IF(SUM(W34:AB34)=0, "direct", IF(SUM(W34:AB34)=1, "partial", "conceptual")),"NA")</f>
         <v>conceptual</v>
       </c>
       <c r="AD34" t="s">
@@ -7588,7 +7632,7 @@
         <v>1994</v>
       </c>
       <c r="V35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W35" s="1">
@@ -7610,7 +7654,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>conceptual</v>
       </c>
       <c r="AD35" t="s">
@@ -7677,12 +7721,16 @@
       <c r="Q36" s="1">
         <v>1</v>
       </c>
+      <c r="S36" s="1" t="str">
+        <f t="shared" ref="S36" si="13">IF(L36=1,D36-R36,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V36" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AC36" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>NA</v>
       </c>
       <c r="AE36" s="1" t="str">
@@ -7759,7 +7807,7 @@
         <v>2006</v>
       </c>
       <c r="V37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="W37" s="1">
@@ -7781,7 +7829,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>conceptual</v>
       </c>
       <c r="AD37" t="s">
@@ -7867,7 +7915,7 @@
         <v>2015</v>
       </c>
       <c r="V38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W38" s="1">
@@ -7889,7 +7937,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>partial</v>
       </c>
       <c r="AD38" t="s">
@@ -7956,12 +8004,16 @@
       <c r="Q39" s="1">
         <v>1</v>
       </c>
+      <c r="S39" s="1" t="str">
+        <f t="shared" ref="S39:S41" si="14">IF(L39=1,D39-R39,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V39" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AC39" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>NA</v>
       </c>
       <c r="AE39" s="1" t="str">
@@ -8025,12 +8077,16 @@
       <c r="Q40" s="1">
         <v>0</v>
       </c>
+      <c r="S40" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>NA</v>
+      </c>
       <c r="V40" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AC40" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>NA</v>
       </c>
       <c r="AE40" s="1" t="str">
@@ -8094,12 +8150,16 @@
       <c r="Q41" s="1">
         <v>1</v>
       </c>
+      <c r="S41" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>NA</v>
+      </c>
       <c r="V41" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AC41" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>NA</v>
       </c>
       <c r="AE41" s="1" t="str">
@@ -8176,7 +8236,7 @@
         <v>2016</v>
       </c>
       <c r="V42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="W42" s="1">
@@ -8198,7 +8258,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>direct</v>
       </c>
       <c r="AD42" t="s">
@@ -8270,12 +8330,16 @@
       <c r="Q43" s="1">
         <v>0</v>
       </c>
+      <c r="S43" s="1" t="str">
+        <f t="shared" ref="S43" si="15">IF(L43=1,D43-R43,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V43" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AC43" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>NA</v>
       </c>
       <c r="AE43" s="1" t="str">
@@ -8352,7 +8416,7 @@
         <v>2008</v>
       </c>
       <c r="V44" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="W44" s="1">
@@ -8374,7 +8438,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>partial</v>
       </c>
       <c r="AD44" t="s">
@@ -8460,7 +8524,7 @@
         <v>2009</v>
       </c>
       <c r="V45" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="W45" s="1">
@@ -8482,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>direct</v>
       </c>
       <c r="AD45" t="s">
@@ -8567,7 +8631,7 @@
         <v>1997</v>
       </c>
       <c r="V46" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="W46" s="1">
@@ -8589,7 +8653,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>partial</v>
       </c>
       <c r="AD46" t="s">
@@ -8662,12 +8726,16 @@
       <c r="Q47" s="1">
         <v>0</v>
       </c>
+      <c r="S47" s="1" t="str">
+        <f t="shared" ref="S47:S49" si="16">IF(L47=1,D47-R47,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V47" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AC47" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>NA</v>
       </c>
       <c r="AE47" s="1" t="str">
@@ -8731,12 +8799,16 @@
       <c r="Q48" s="1">
         <v>0</v>
       </c>
+      <c r="S48" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
       <c r="V48" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AC48" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>NA</v>
       </c>
       <c r="AE48" s="1" t="str">
@@ -8800,12 +8872,16 @@
       <c r="Q49" s="1">
         <v>0</v>
       </c>
+      <c r="S49" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
       <c r="V49" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AC49" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>NA</v>
       </c>
       <c r="AE49" s="1" t="str">
@@ -8882,7 +8958,7 @@
         <v>2018</v>
       </c>
       <c r="V50" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W50" s="1">
@@ -8904,7 +8980,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>conceptual</v>
       </c>
       <c r="AD50" t="s">
@@ -8984,7 +9060,7 @@
         <v>2009</v>
       </c>
       <c r="V51" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="W51" s="1">
@@ -9006,7 +9082,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>direct</v>
       </c>
       <c r="AD51" t="s">
@@ -9072,12 +9148,16 @@
       <c r="Q52" s="1">
         <v>1</v>
       </c>
+      <c r="S52" s="1" t="str">
+        <f t="shared" ref="S52:S54" si="17">IF(L52=1,D52-R52,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V52" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AC52" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>NA</v>
       </c>
       <c r="AE52" s="1" t="str">
@@ -9135,12 +9215,16 @@
       <c r="Q53" s="1">
         <v>1</v>
       </c>
+      <c r="S53" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>NA</v>
+      </c>
       <c r="V53" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AC53" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>NA</v>
       </c>
       <c r="AE53" s="1" t="str">
@@ -9229,7 +9313,7 @@
         <v>1</v>
       </c>
       <c r="AC54" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>conceptual</v>
       </c>
       <c r="AD54" t="s">
@@ -9302,12 +9386,16 @@
       <c r="Q55" s="1">
         <v>1</v>
       </c>
+      <c r="S55" s="1" t="str">
+        <f t="shared" ref="S55" si="18">IF(L55=1,D55-R55,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V55" s="1" t="str">
-        <f t="shared" ref="V55:V86" si="6">IF(O55=1,G55-U55,"NA")</f>
+        <f t="shared" ref="V55:V86" si="19">IF(O55=1,G55-U55,"NA")</f>
         <v>NA</v>
       </c>
       <c r="AC55" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>NA</v>
       </c>
       <c r="AE55" s="1" t="str">
@@ -9384,7 +9472,7 @@
         <v>2017</v>
       </c>
       <c r="V56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W56" s="1">
@@ -9406,7 +9494,7 @@
         <v>1</v>
       </c>
       <c r="AC56" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>partial</v>
       </c>
       <c r="AD56" t="s">
@@ -9473,12 +9561,16 @@
       <c r="Q57" s="1">
         <v>1</v>
       </c>
+      <c r="S57" s="1" t="str">
+        <f t="shared" ref="S57" si="20">IF(L57=1,D57-R57,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V57" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>NA</v>
       </c>
       <c r="AC57" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>NA</v>
       </c>
       <c r="AE57" s="1" t="str">
@@ -9555,7 +9647,7 @@
         <v>2020</v>
       </c>
       <c r="V58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W58" s="1">
@@ -9577,7 +9669,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>conceptual</v>
       </c>
       <c r="AD58" t="s">
@@ -9644,12 +9736,16 @@
       <c r="Q59" s="1">
         <v>0</v>
       </c>
+      <c r="S59" s="1" t="str">
+        <f t="shared" ref="S59" si="21">IF(L59=1,D59-R59,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V59" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>NA</v>
       </c>
       <c r="AC59" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>NA</v>
       </c>
       <c r="AE59" s="1" t="str">
@@ -9726,7 +9822,7 @@
         <v>2019</v>
       </c>
       <c r="V60" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W60" s="1">
@@ -9748,7 +9844,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>conceptual</v>
       </c>
       <c r="AD60" t="s">
@@ -9815,12 +9911,16 @@
       <c r="Q61" s="1">
         <v>0</v>
       </c>
+      <c r="S61" s="1" t="str">
+        <f t="shared" ref="S61" si="22">IF(L61=1,D61-R61,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V61" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>NA</v>
       </c>
       <c r="AC61" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>NA</v>
       </c>
       <c r="AE61" s="1" t="str">
@@ -9897,7 +9997,7 @@
         <v>2016</v>
       </c>
       <c r="V62" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W62" s="1">
@@ -9919,7 +10019,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>conceptual</v>
       </c>
       <c r="AD62" t="s">
@@ -9986,12 +10086,16 @@
       <c r="Q63" s="1">
         <v>0</v>
       </c>
+      <c r="S63" s="1" t="str">
+        <f t="shared" ref="S63:S66" si="23">IF(L63=1,D63-R63,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V63" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>NA</v>
       </c>
       <c r="AC63" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>NA</v>
       </c>
       <c r="AE63" s="1" t="str">
@@ -10055,12 +10159,16 @@
       <c r="Q64" s="1">
         <v>1</v>
       </c>
+      <c r="S64" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
       <c r="V64" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>NA</v>
       </c>
       <c r="AC64" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>NA</v>
       </c>
       <c r="AE64" s="1" t="str">
@@ -10124,12 +10232,16 @@
       <c r="Q65" s="1">
         <v>0</v>
       </c>
+      <c r="S65" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
       <c r="V65" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>NA</v>
       </c>
       <c r="AC65" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>NA</v>
       </c>
       <c r="AE65" s="1" t="str">
@@ -10193,12 +10305,16 @@
       <c r="Q66" s="1">
         <v>0</v>
       </c>
+      <c r="S66" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
       <c r="V66" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>NA</v>
       </c>
       <c r="AC66" s="1" t="str">
-        <f t="shared" ref="AC66:AC97" si="7">IF(O66=1, IF(SUM(W66:AB66)=0, "direct", IF(SUM(W66:AB66)=1, "partial", "conceptual")),"NA")</f>
+        <f t="shared" ref="AC66:AC97" si="24">IF(O66=1, IF(SUM(W66:AB66)=0, "direct", IF(SUM(W66:AB66)=1, "partial", "conceptual")),"NA")</f>
         <v>NA</v>
       </c>
       <c r="AE66" s="1" t="str">
@@ -10275,7 +10391,7 @@
         <v>1982</v>
       </c>
       <c r="V67" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
       <c r="W67" s="1">
@@ -10297,18 +10413,18 @@
         <v>1</v>
       </c>
       <c r="AC67" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>conceptual</v>
       </c>
       <c r="AD67" t="s">
         <v>11</v>
       </c>
       <c r="AE67" s="1" t="str">
-        <f t="shared" ref="AE67:AE130" si="8">IF(AC67="direct", "check", "NA")</f>
+        <f t="shared" ref="AE67:AE130" si="25">IF(AC67="direct", "check", "NA")</f>
         <v>NA</v>
       </c>
       <c r="AF67" s="1">
-        <f t="shared" ref="AF67:AF130" si="9">E67</f>
+        <f t="shared" ref="AF67:AF130" si="26">E67</f>
         <v>4</v>
       </c>
       <c r="AG67">
@@ -10370,20 +10486,24 @@
       <c r="Q68" s="1">
         <v>0</v>
       </c>
+      <c r="S68" s="1" t="str">
+        <f t="shared" ref="S68:S69" si="27">IF(L68=1,D68-R68,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V68" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>NA</v>
       </c>
       <c r="AC68" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>NA</v>
       </c>
       <c r="AE68" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF68" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>5</v>
       </c>
     </row>
@@ -10439,20 +10559,24 @@
       <c r="Q69" s="1">
         <v>0</v>
       </c>
+      <c r="S69" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>NA</v>
+      </c>
       <c r="V69" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>NA</v>
       </c>
       <c r="AC69" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>NA</v>
       </c>
       <c r="AE69" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF69" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>6</v>
       </c>
     </row>
@@ -10521,7 +10645,7 @@
         <v>1981</v>
       </c>
       <c r="V70" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>12</v>
       </c>
       <c r="W70" s="1">
@@ -10543,18 +10667,18 @@
         <v>0</v>
       </c>
       <c r="AC70" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>conceptual</v>
       </c>
       <c r="AD70" t="s">
         <v>784</v>
       </c>
       <c r="AE70" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF70" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AG70">
@@ -10629,7 +10753,7 @@
         <v>1984</v>
       </c>
       <c r="V71" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>11</v>
       </c>
       <c r="W71" s="1">
@@ -10651,18 +10775,18 @@
         <v>1</v>
       </c>
       <c r="AC71" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>conceptual</v>
       </c>
       <c r="AD71" t="s">
         <v>11</v>
       </c>
       <c r="AE71" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF71" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="AG71">
@@ -10737,7 +10861,7 @@
         <v>2002</v>
       </c>
       <c r="V72" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="W72" s="1">
@@ -10759,18 +10883,18 @@
         <v>0</v>
       </c>
       <c r="AC72" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>conceptual</v>
       </c>
       <c r="AD72" t="s">
         <v>197</v>
       </c>
       <c r="AE72" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF72" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="AG72">
@@ -10832,20 +10956,24 @@
       <c r="Q73" s="1">
         <v>0</v>
       </c>
+      <c r="S73" s="1" t="str">
+        <f t="shared" ref="S73" si="28">IF(L73=1,D73-R73,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V73" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>NA</v>
       </c>
       <c r="AC73" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>NA</v>
       </c>
       <c r="AE73" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF73" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>157</v>
       </c>
     </row>
@@ -10914,7 +11042,7 @@
         <v>1993</v>
       </c>
       <c r="V74" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
       <c r="W74" s="1">
@@ -10936,18 +11064,18 @@
         <v>0</v>
       </c>
       <c r="AC74" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>partial</v>
       </c>
       <c r="AD74" t="s">
         <v>11</v>
       </c>
       <c r="AE74" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF74" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="AG74">
@@ -11009,20 +11137,24 @@
       <c r="Q75" s="1">
         <v>0</v>
       </c>
+      <c r="S75" s="1" t="str">
+        <f t="shared" ref="S75" si="29">IF(L75=1,D75-R75,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V75" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>NA</v>
       </c>
       <c r="AC75" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>NA</v>
       </c>
       <c r="AE75" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF75" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -11091,7 +11223,7 @@
         <v>1997</v>
       </c>
       <c r="V76" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>23</v>
       </c>
       <c r="W76" s="1">
@@ -11113,18 +11245,18 @@
         <v>0</v>
       </c>
       <c r="AC76" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>conceptual</v>
       </c>
       <c r="AD76" t="s">
         <v>11</v>
       </c>
       <c r="AE76" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF76" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AG76">
@@ -11186,20 +11318,24 @@
       <c r="Q77" s="1">
         <v>0</v>
       </c>
+      <c r="S77" s="1" t="str">
+        <f t="shared" ref="S77" si="30">IF(L77=1,D77-R77,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V77" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>NA</v>
       </c>
       <c r="AC77" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>NA</v>
       </c>
       <c r="AE77" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF77" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -11268,7 +11404,7 @@
         <v>1999</v>
       </c>
       <c r="V78" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="W78" s="1">
@@ -11290,7 +11426,7 @@
         <v>0</v>
       </c>
       <c r="AC78" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>direct</v>
       </c>
       <c r="AD78" t="s">
@@ -11300,7 +11436,7 @@
         <v>1</v>
       </c>
       <c r="AF78" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>43</v>
       </c>
       <c r="AG78">
@@ -11363,21 +11499,24 @@
         <v>1</v>
       </c>
       <c r="R79" s="1"/>
-      <c r="S79" s="1"/>
+      <c r="S79" s="1" t="str">
+        <f t="shared" ref="S79:S81" si="31">IF(L79=1,D79-R79,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V79" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>NA</v>
       </c>
       <c r="AC79" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>NA</v>
       </c>
       <c r="AE79" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF79" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
     </row>
@@ -11434,21 +11573,24 @@
         <v>1</v>
       </c>
       <c r="R80" s="1"/>
-      <c r="S80" s="1"/>
+      <c r="S80" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>NA</v>
+      </c>
       <c r="V80" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>NA</v>
       </c>
       <c r="AC80" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>NA</v>
       </c>
       <c r="AE80" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF80" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>6</v>
       </c>
     </row>
@@ -11505,21 +11647,24 @@
         <v>0</v>
       </c>
       <c r="R81" s="1"/>
-      <c r="S81" s="1"/>
+      <c r="S81" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>NA</v>
+      </c>
       <c r="V81" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>NA</v>
       </c>
       <c r="AC81" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>NA</v>
       </c>
       <c r="AE81" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF81" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
     </row>
@@ -11588,7 +11733,7 @@
         <v>1990</v>
       </c>
       <c r="V82" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="W82" s="1">
@@ -11610,18 +11755,18 @@
         <v>0</v>
       </c>
       <c r="AC82" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>partial</v>
       </c>
       <c r="AD82" t="s">
         <v>816</v>
       </c>
       <c r="AE82" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF82" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>6</v>
       </c>
       <c r="AG82">
@@ -11696,7 +11841,7 @@
         <v>2011</v>
       </c>
       <c r="V83" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
       <c r="W83" s="1">
@@ -11718,18 +11863,18 @@
         <v>1</v>
       </c>
       <c r="AC83" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>conceptual</v>
       </c>
       <c r="AD83" t="s">
         <v>795</v>
       </c>
       <c r="AE83" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF83" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="AG83" t="s">
@@ -11804,7 +11949,7 @@
         <v>2011</v>
       </c>
       <c r="V84" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W84" s="1">
@@ -11826,18 +11971,18 @@
         <v>0</v>
       </c>
       <c r="AC84" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>conceptual</v>
       </c>
       <c r="AD84" t="s">
         <v>796</v>
       </c>
       <c r="AE84" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF84" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>13</v>
       </c>
     </row>
@@ -11894,21 +12039,24 @@
         <v>0</v>
       </c>
       <c r="R85" s="1"/>
-      <c r="S85" s="1"/>
+      <c r="S85" s="1" t="str">
+        <f t="shared" ref="S85:S86" si="32">IF(L85=1,D85-R85,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V85" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>NA</v>
       </c>
       <c r="AC85" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>NA</v>
       </c>
       <c r="AE85" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF85" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>126</v>
       </c>
     </row>
@@ -11965,21 +12113,24 @@
         <v>0</v>
       </c>
       <c r="R86" s="1"/>
-      <c r="S86" s="1"/>
+      <c r="S86" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>NA</v>
+      </c>
       <c r="V86" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>NA</v>
       </c>
       <c r="AC86" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>NA</v>
       </c>
       <c r="AE86" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF86" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>32</v>
       </c>
     </row>
@@ -12048,7 +12199,7 @@
         <v>2018</v>
       </c>
       <c r="V87" s="1">
-        <f t="shared" ref="V87:V118" si="10">IF(O87=1,G87-U87,"NA")</f>
+        <f t="shared" ref="V87:V110" si="33">IF(O87=1,G87-U87,"NA")</f>
         <v>1</v>
       </c>
       <c r="W87" s="1">
@@ -12070,18 +12221,18 @@
         <v>0</v>
       </c>
       <c r="AC87" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>partial</v>
       </c>
       <c r="AD87" t="s">
         <v>799</v>
       </c>
       <c r="AE87" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF87" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="AG87">
@@ -12156,7 +12307,7 @@
         <v>1992</v>
       </c>
       <c r="V88" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
       <c r="W88" s="1">
@@ -12178,18 +12329,18 @@
         <v>0</v>
       </c>
       <c r="AC88" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>partial</v>
       </c>
       <c r="AD88" t="s">
         <v>11</v>
       </c>
       <c r="AE88" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF88" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>28</v>
       </c>
       <c r="AG88" t="s">
@@ -12264,7 +12415,7 @@
         <v>2001</v>
       </c>
       <c r="V89" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
       <c r="W89" s="1">
@@ -12286,18 +12437,18 @@
         <v>1</v>
       </c>
       <c r="AC89" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>conceptual</v>
       </c>
       <c r="AD89" t="s">
         <v>803</v>
       </c>
       <c r="AE89" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF89" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>66</v>
       </c>
       <c r="AG89">
@@ -12372,7 +12523,7 @@
         <v>2010</v>
       </c>
       <c r="V90" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="W90" s="1">
@@ -12394,18 +12545,18 @@
         <v>0</v>
       </c>
       <c r="AC90" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>partial</v>
       </c>
       <c r="AD90" t="s">
         <v>804</v>
       </c>
       <c r="AE90" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF90" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>47</v>
       </c>
       <c r="AG90">
@@ -12480,7 +12631,7 @@
         <v>2008</v>
       </c>
       <c r="V91" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="W91" s="1">
@@ -12502,18 +12653,18 @@
         <v>0</v>
       </c>
       <c r="AC91" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>conceptual</v>
       </c>
       <c r="AD91" t="s">
         <v>817</v>
       </c>
       <c r="AE91" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF91" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>22</v>
       </c>
       <c r="AG91">
@@ -12576,21 +12727,24 @@
         <v>0</v>
       </c>
       <c r="R92" s="1"/>
-      <c r="S92" s="1"/>
+      <c r="S92" s="1" t="str">
+        <f t="shared" ref="S92:S95" si="34">IF(L92=1,D92-R92,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V92" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AC92" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>NA</v>
       </c>
       <c r="AE92" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF92" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -12646,20 +12800,24 @@
       <c r="Q93" s="1">
         <v>0</v>
       </c>
+      <c r="S93" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>NA</v>
+      </c>
       <c r="V93" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AC93" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>NA</v>
       </c>
       <c r="AE93" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF93" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>74</v>
       </c>
     </row>
@@ -12715,20 +12873,24 @@
       <c r="Q94" s="1">
         <v>0</v>
       </c>
+      <c r="S94" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>NA</v>
+      </c>
       <c r="V94" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AC94" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>NA</v>
       </c>
       <c r="AE94" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF94" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
     </row>
@@ -12784,20 +12946,24 @@
       <c r="Q95" s="1">
         <v>0</v>
       </c>
+      <c r="S95" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>NA</v>
+      </c>
       <c r="V95" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AC95" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>NA</v>
       </c>
       <c r="AE95" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF95" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>6</v>
       </c>
     </row>
@@ -12866,7 +13032,7 @@
         <v>1997</v>
       </c>
       <c r="V96" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>9</v>
       </c>
       <c r="W96" s="1">
@@ -12888,18 +13054,18 @@
         <v>0</v>
       </c>
       <c r="AC96" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>conceptual</v>
       </c>
       <c r="AD96" t="s">
         <v>11</v>
       </c>
       <c r="AE96" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF96" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="AG96">
@@ -12974,7 +13140,7 @@
         <v>2020</v>
       </c>
       <c r="V97" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W97" s="1">
@@ -12996,18 +13162,18 @@
         <v>0</v>
       </c>
       <c r="AC97" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>partial</v>
       </c>
       <c r="AD97" t="s">
         <v>11</v>
       </c>
       <c r="AE97" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF97" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -13063,20 +13229,24 @@
       <c r="Q98" s="1">
         <v>0</v>
       </c>
+      <c r="S98" s="1" t="str">
+        <f t="shared" ref="S98" si="35">IF(L98=1,D98-R98,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V98" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AC98" s="1" t="str">
-        <f t="shared" ref="AC98:AC129" si="11">IF(O98=1, IF(SUM(W98:AB98)=0, "direct", IF(SUM(W98:AB98)=1, "partial", "conceptual")),"NA")</f>
+        <f t="shared" ref="AC98:AC129" si="36">IF(O98=1, IF(SUM(W98:AB98)=0, "direct", IF(SUM(W98:AB98)=1, "partial", "conceptual")),"NA")</f>
         <v>NA</v>
       </c>
       <c r="AE98" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF98" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
     </row>
@@ -13145,7 +13315,7 @@
         <v>2004</v>
       </c>
       <c r="V99" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>16</v>
       </c>
       <c r="W99" s="1">
@@ -13167,18 +13337,18 @@
         <v>0</v>
       </c>
       <c r="AC99" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>partial</v>
       </c>
       <c r="AD99" t="s">
         <v>11</v>
       </c>
       <c r="AE99" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF99" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AG99">
@@ -13240,20 +13410,24 @@
       <c r="Q100" s="1">
         <v>0</v>
       </c>
+      <c r="S100" s="1" t="str">
+        <f t="shared" ref="S100" si="37">IF(L100=1,D100-R100,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V100" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AC100" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="AE100" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF100" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>19</v>
       </c>
     </row>
@@ -13322,7 +13496,7 @@
         <v>2012</v>
       </c>
       <c r="V101" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>6</v>
       </c>
       <c r="W101" s="1">
@@ -13344,18 +13518,18 @@
         <v>0</v>
       </c>
       <c r="AC101" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>conceptual</v>
       </c>
       <c r="AD101" t="s">
         <v>818</v>
       </c>
       <c r="AE101" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF101" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="AG101">
@@ -13417,20 +13591,24 @@
       <c r="Q102" s="1">
         <v>0</v>
       </c>
+      <c r="S102" s="1" t="str">
+        <f t="shared" ref="S102:S104" si="38">IF(L102=1,D102-R102,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V102" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AC102" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="AE102" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF102" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>20</v>
       </c>
     </row>
@@ -13486,20 +13664,24 @@
       <c r="Q103" s="1">
         <v>0</v>
       </c>
+      <c r="S103" s="1" t="str">
+        <f t="shared" si="38"/>
+        <v>NA</v>
+      </c>
       <c r="V103" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AC103" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="AE103" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF103" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>27</v>
       </c>
     </row>
@@ -13555,20 +13737,24 @@
       <c r="Q104" s="1">
         <v>0</v>
       </c>
+      <c r="S104" s="1" t="str">
+        <f t="shared" si="38"/>
+        <v>NA</v>
+      </c>
       <c r="V104" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AC104" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="AE104" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF104" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
     </row>
@@ -13637,7 +13823,7 @@
         <v>2007</v>
       </c>
       <c r="V105" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="W105" s="1">
@@ -13659,18 +13845,18 @@
         <v>0</v>
       </c>
       <c r="AC105" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>conceptual</v>
       </c>
       <c r="AD105" t="s">
         <v>819</v>
       </c>
       <c r="AE105" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF105" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>17</v>
       </c>
       <c r="AG105">
@@ -13745,7 +13931,7 @@
         <v>2016</v>
       </c>
       <c r="V106" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="W106" s="1">
@@ -13767,18 +13953,18 @@
         <v>0</v>
       </c>
       <c r="AC106" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>partial</v>
       </c>
       <c r="AD106" t="s">
         <v>821</v>
       </c>
       <c r="AE106" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF106" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="AG106">
@@ -13840,20 +14026,24 @@
       <c r="Q107" s="1">
         <v>0</v>
       </c>
+      <c r="S107" s="1" t="str">
+        <f t="shared" ref="S107" si="39">IF(L107=1,D107-R107,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V107" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AC107" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="AE107" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF107" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>37</v>
       </c>
     </row>
@@ -13922,7 +14112,7 @@
         <v>2008</v>
       </c>
       <c r="V108" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>7</v>
       </c>
       <c r="W108" s="1">
@@ -13944,18 +14134,18 @@
         <v>0</v>
       </c>
       <c r="AC108" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>partial</v>
       </c>
       <c r="AD108" t="s">
         <v>824</v>
       </c>
       <c r="AE108" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF108" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>20</v>
       </c>
       <c r="AG108">
@@ -14030,7 +14220,7 @@
         <v>2010</v>
       </c>
       <c r="V109" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>8</v>
       </c>
       <c r="W109" s="1">
@@ -14052,18 +14242,18 @@
         <v>0</v>
       </c>
       <c r="AC109" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>partial</v>
       </c>
       <c r="AD109" t="s">
         <v>826</v>
       </c>
       <c r="AE109" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF109" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="AG109">
@@ -14138,7 +14328,7 @@
         <v>2016</v>
       </c>
       <c r="V110" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
       <c r="W110" s="1">
@@ -14160,18 +14350,18 @@
         <v>0</v>
       </c>
       <c r="AC110" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>conceptual</v>
       </c>
       <c r="AD110" t="s">
         <v>828</v>
       </c>
       <c r="AE110" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF110" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AG110">
@@ -14268,18 +14458,18 @@
         <v>1</v>
       </c>
       <c r="AC111" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>conceptual</v>
       </c>
       <c r="AD111" t="s">
         <v>11</v>
       </c>
       <c r="AE111" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF111" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>15</v>
       </c>
       <c r="AG111" t="s">
@@ -14341,20 +14531,24 @@
       <c r="Q112" s="1">
         <v>0</v>
       </c>
+      <c r="S112" s="1" t="str">
+        <f t="shared" ref="S112:S113" si="40">IF(L112=1,D112-R112,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V112" s="1" t="str">
-        <f t="shared" ref="V112:V143" si="12">IF(O112=1,G112-U112,"NA")</f>
+        <f t="shared" ref="V112:V143" si="41">IF(O112=1,G112-U112,"NA")</f>
         <v>NA</v>
       </c>
       <c r="AC112" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="AE112" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF112" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>59</v>
       </c>
     </row>
@@ -14410,20 +14604,24 @@
       <c r="Q113" s="1">
         <v>0</v>
       </c>
+      <c r="S113" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>NA</v>
+      </c>
       <c r="V113" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="AC113" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="AE113" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF113" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -14492,7 +14690,7 @@
         <v>1999</v>
       </c>
       <c r="V114" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="41"/>
         <v>8</v>
       </c>
       <c r="W114" s="1">
@@ -14514,18 +14712,18 @@
         <v>1</v>
       </c>
       <c r="AC114" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>conceptual</v>
       </c>
       <c r="AD114" t="s">
         <v>832</v>
       </c>
       <c r="AE114" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF114" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>52</v>
       </c>
       <c r="AG114">
@@ -14600,7 +14798,7 @@
         <v>2015</v>
       </c>
       <c r="V115" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="W115" s="1">
@@ -14622,18 +14820,18 @@
         <v>0</v>
       </c>
       <c r="AC115" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>partial</v>
       </c>
       <c r="AD115" t="s">
         <v>11</v>
       </c>
       <c r="AE115" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF115" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>15</v>
       </c>
       <c r="AG115">
@@ -14695,20 +14893,24 @@
       <c r="Q116" s="1">
         <v>0</v>
       </c>
+      <c r="S116" s="1" t="str">
+        <f t="shared" ref="S116" si="42">IF(L116=1,D116-R116,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V116" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="AC116" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="AE116" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF116" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
     </row>
@@ -14777,7 +14979,7 @@
         <v>2020</v>
       </c>
       <c r="V117" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="W117" s="1">
@@ -14799,18 +15001,18 @@
         <v>0</v>
       </c>
       <c r="AC117" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>conceptual</v>
       </c>
       <c r="AD117" t="s">
         <v>835</v>
       </c>
       <c r="AE117" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF117" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -14866,20 +15068,24 @@
       <c r="Q118" s="1">
         <v>0</v>
       </c>
+      <c r="S118" s="1" t="str">
+        <f t="shared" ref="S118:S120" si="43">IF(L118=1,D118-R118,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V118" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="AC118" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="AE118" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF118" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>24</v>
       </c>
     </row>
@@ -14935,20 +15141,24 @@
       <c r="Q119" s="1">
         <v>0</v>
       </c>
+      <c r="S119" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>NA</v>
+      </c>
       <c r="V119" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="AC119" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="AE119" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF119" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>35</v>
       </c>
     </row>
@@ -15004,20 +15214,24 @@
       <c r="Q120" s="1">
         <v>1</v>
       </c>
+      <c r="S120" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>NA</v>
+      </c>
       <c r="V120" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="AC120" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="AE120" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF120" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
     </row>
@@ -15086,7 +15300,7 @@
         <v>1993</v>
       </c>
       <c r="V121" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="41"/>
         <v>11</v>
       </c>
       <c r="W121" s="1">
@@ -15108,18 +15322,18 @@
         <v>0</v>
       </c>
       <c r="AC121" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>conceptual</v>
       </c>
       <c r="AD121" t="s">
         <v>837</v>
       </c>
       <c r="AE121" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF121" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>12</v>
       </c>
       <c r="AG121">
@@ -15194,7 +15408,7 @@
         <v>2016</v>
       </c>
       <c r="V122" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="41"/>
         <v>4</v>
       </c>
       <c r="W122" s="1">
@@ -15216,18 +15430,18 @@
         <v>0</v>
       </c>
       <c r="AC122" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>conceptual</v>
       </c>
       <c r="AD122" t="s">
         <v>839</v>
       </c>
       <c r="AE122" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF122" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AG122" t="s">
@@ -15289,20 +15503,24 @@
       <c r="Q123" s="1">
         <v>1</v>
       </c>
+      <c r="S123" s="1" t="str">
+        <f t="shared" ref="S123" si="44">IF(L123=1,D123-R123,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V123" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="AC123" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="AE123" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF123" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>17</v>
       </c>
     </row>
@@ -15371,7 +15589,7 @@
         <v>2015</v>
       </c>
       <c r="V124" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="41"/>
         <v>5</v>
       </c>
       <c r="W124">
@@ -15393,18 +15611,18 @@
         <v>1</v>
       </c>
       <c r="AC124" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>conceptual</v>
       </c>
       <c r="AD124" t="s">
         <v>11</v>
       </c>
       <c r="AE124" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF124" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AG124">
@@ -15479,7 +15697,7 @@
         <v>2015</v>
       </c>
       <c r="V125" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="41"/>
         <v>5</v>
       </c>
       <c r="W125" s="1">
@@ -15501,18 +15719,18 @@
         <v>1</v>
       </c>
       <c r="AC125" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>partial</v>
       </c>
       <c r="AD125" t="s">
         <v>11</v>
       </c>
       <c r="AE125" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF125" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AG125">
@@ -15571,20 +15789,24 @@
       <c r="Q126" s="1">
         <v>1</v>
       </c>
+      <c r="S126" s="1" t="str">
+        <f t="shared" ref="S126:S130" si="45">IF(L126=1,D126-R126,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V126" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="AC126" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="AE126" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF126" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -15640,20 +15862,24 @@
       <c r="Q127" s="1">
         <v>1</v>
       </c>
+      <c r="S127" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>NA</v>
+      </c>
       <c r="V127" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="AC127" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="AE127" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF127" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
     </row>
@@ -15709,20 +15935,24 @@
       <c r="Q128" s="1">
         <v>1</v>
       </c>
+      <c r="S128" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>NA</v>
+      </c>
       <c r="V128" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="AC128" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="AE128" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF128" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -15778,20 +16008,24 @@
       <c r="Q129" s="1">
         <v>1</v>
       </c>
+      <c r="S129" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>NA</v>
+      </c>
       <c r="V129" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="AC129" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="AE129" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF129" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
     </row>
@@ -15847,20 +16081,24 @@
       <c r="Q130" s="1">
         <v>1</v>
       </c>
+      <c r="S130" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>NA</v>
+      </c>
       <c r="V130" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="AC130" s="1" t="str">
-        <f t="shared" ref="AC130:AC161" si="13">IF(O130=1, IF(SUM(W130:AB130)=0, "direct", IF(SUM(W130:AB130)=1, "partial", "conceptual")),"NA")</f>
+        <f t="shared" ref="AC130:AC131" si="46">IF(O130=1, IF(SUM(W130:AB130)=0, "direct", IF(SUM(W130:AB130)=1, "partial", "conceptual")),"NA")</f>
         <v>NA</v>
       </c>
       <c r="AE130" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AF130" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
     </row>
@@ -15929,7 +16167,7 @@
         <v>1998</v>
       </c>
       <c r="V131" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="W131" s="1">
@@ -15951,18 +16189,18 @@
         <v>0</v>
       </c>
       <c r="AC131" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="46"/>
         <v>conceptual</v>
       </c>
       <c r="AD131" t="s">
         <v>846</v>
       </c>
       <c r="AE131" s="1" t="str">
-        <f t="shared" ref="AE131:AE194" si="14">IF(AC131="direct", "check", "NA")</f>
+        <f t="shared" ref="AE131:AE194" si="47">IF(AC131="direct", "check", "NA")</f>
         <v>NA</v>
       </c>
       <c r="AF131" s="1">
-        <f t="shared" ref="AF131:AF194" si="15">E131</f>
+        <f t="shared" ref="AF131:AF194" si="48">E131</f>
         <v>149</v>
       </c>
     </row>
@@ -16031,18 +16269,18 @@
         <v>2010</v>
       </c>
       <c r="V132" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="41"/>
         <v>4</v>
       </c>
       <c r="AC132" s="1" t="s">
         <v>777</v>
       </c>
       <c r="AE132" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF132" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>8</v>
       </c>
       <c r="AG132">
@@ -16117,7 +16355,7 @@
         <v>2002</v>
       </c>
       <c r="V133" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="41"/>
         <v>9</v>
       </c>
       <c r="W133" s="1">
@@ -16139,18 +16377,18 @@
         <v>1</v>
       </c>
       <c r="AC133" s="1" t="str">
-        <f t="shared" ref="AC133:AC170" si="16">IF(O133=1, IF(SUM(W133:AB133)=0, "direct", IF(SUM(W133:AB133)=1, "partial", "conceptual")),"NA")</f>
+        <f t="shared" ref="AC133:AC170" si="49">IF(O133=1, IF(SUM(W133:AB133)=0, "direct", IF(SUM(W133:AB133)=1, "partial", "conceptual")),"NA")</f>
         <v>conceptual</v>
       </c>
       <c r="AD133" t="s">
         <v>197</v>
       </c>
       <c r="AE133" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF133" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>22</v>
       </c>
       <c r="AG133">
@@ -16225,7 +16463,7 @@
         <v>1999</v>
       </c>
       <c r="V134" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="W134" s="1">
@@ -16247,18 +16485,18 @@
         <v>0</v>
       </c>
       <c r="AC134" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="49"/>
         <v>partial</v>
       </c>
       <c r="AD134" t="s">
         <v>11</v>
       </c>
       <c r="AE134" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF134" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>153</v>
       </c>
     </row>
@@ -16314,20 +16552,24 @@
       <c r="Q135" s="1">
         <v>0</v>
       </c>
+      <c r="S135" s="1" t="str">
+        <f t="shared" ref="S135:S136" si="50">IF(L135=1,D135-R135,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V135" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="AC135" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="49"/>
         <v>NA</v>
       </c>
       <c r="AE135" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF135" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>10</v>
       </c>
     </row>
@@ -16383,20 +16625,24 @@
       <c r="Q136" s="1">
         <v>0</v>
       </c>
+      <c r="S136" s="1" t="str">
+        <f t="shared" si="50"/>
+        <v>NA</v>
+      </c>
       <c r="V136" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="AC136" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="49"/>
         <v>NA</v>
       </c>
       <c r="AE136" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF136" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>22</v>
       </c>
     </row>
@@ -16465,7 +16711,7 @@
         <v>2016</v>
       </c>
       <c r="V137" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="W137" s="1">
@@ -16487,18 +16733,18 @@
         <v>0</v>
       </c>
       <c r="AC137" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="49"/>
         <v>conceptual</v>
       </c>
       <c r="AD137" t="s">
         <v>795</v>
       </c>
       <c r="AE137" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF137" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>15</v>
       </c>
     </row>
@@ -16567,7 +16813,7 @@
         <v>2014</v>
       </c>
       <c r="V138" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="W138" s="1">
@@ -16589,18 +16835,18 @@
         <v>0</v>
       </c>
       <c r="AC138" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="49"/>
         <v>conceptual</v>
       </c>
       <c r="AD138" t="s">
         <v>795</v>
       </c>
       <c r="AE138" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF138" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>36</v>
       </c>
     </row>
@@ -16656,20 +16902,24 @@
       <c r="Q139" s="1">
         <v>0</v>
       </c>
+      <c r="S139" s="1" t="str">
+        <f t="shared" ref="S139:S141" si="51">IF(L139=1,D139-R139,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V139" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="AC139" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="49"/>
         <v>NA</v>
       </c>
       <c r="AE139" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF139" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
     </row>
@@ -16725,20 +16975,24 @@
       <c r="Q140" s="1">
         <v>0</v>
       </c>
+      <c r="S140" s="1" t="str">
+        <f t="shared" si="51"/>
+        <v>NA</v>
+      </c>
       <c r="V140" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="AC140" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="49"/>
         <v>NA</v>
       </c>
       <c r="AE140" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF140" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
     </row>
@@ -16794,20 +17048,24 @@
       <c r="Q141" s="1">
         <v>0</v>
       </c>
+      <c r="S141" s="1" t="str">
+        <f t="shared" si="51"/>
+        <v>NA</v>
+      </c>
       <c r="V141" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="AC141" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="49"/>
         <v>NA</v>
       </c>
       <c r="AE141" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF141" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -16876,7 +17134,7 @@
         <v>1994</v>
       </c>
       <c r="V142" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
       <c r="W142" s="1">
@@ -16898,7 +17156,7 @@
         <v>0</v>
       </c>
       <c r="AC142" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="49"/>
         <v>direct</v>
       </c>
       <c r="AD142" t="s">
@@ -16908,7 +17166,7 @@
         <v>1</v>
       </c>
       <c r="AF142" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>17</v>
       </c>
       <c r="AG142">
@@ -16970,20 +17228,24 @@
       <c r="Q143" s="1">
         <v>0</v>
       </c>
+      <c r="S143" s="1" t="str">
+        <f t="shared" ref="S143:S145" si="52">IF(L143=1,D143-R143,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V143" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="41"/>
         <v>NA</v>
       </c>
       <c r="AC143" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="49"/>
         <v>NA</v>
       </c>
       <c r="AE143" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF143" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -17039,20 +17301,24 @@
       <c r="Q144" s="1">
         <v>0</v>
       </c>
+      <c r="S144" s="1" t="str">
+        <f t="shared" si="52"/>
+        <v>NA</v>
+      </c>
       <c r="V144" s="1" t="str">
-        <f t="shared" ref="V144:V175" si="17">IF(O144=1,G144-U144,"NA")</f>
+        <f t="shared" ref="V144:V171" si="53">IF(O144=1,G144-U144,"NA")</f>
         <v>NA</v>
       </c>
       <c r="AC144" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="49"/>
         <v>NA</v>
       </c>
       <c r="AE144" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF144" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
     </row>
@@ -17108,20 +17374,24 @@
       <c r="Q145" s="1">
         <v>0</v>
       </c>
+      <c r="S145" s="1" t="str">
+        <f t="shared" si="52"/>
+        <v>NA</v>
+      </c>
       <c r="V145" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="AC145" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="49"/>
         <v>NA</v>
       </c>
       <c r="AE145" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF145" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>6</v>
       </c>
     </row>
@@ -17190,7 +17460,7 @@
         <v>2004</v>
       </c>
       <c r="V146" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="W146" s="1">
@@ -17212,18 +17482,18 @@
         <v>1</v>
       </c>
       <c r="AC146" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="49"/>
         <v>conceptual</v>
       </c>
       <c r="AD146" t="s">
         <v>11</v>
       </c>
       <c r="AE146" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF146" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>48</v>
       </c>
     </row>
@@ -17279,20 +17549,24 @@
       <c r="Q147" s="1">
         <v>0</v>
       </c>
+      <c r="S147" s="1" t="str">
+        <f t="shared" ref="S147" si="54">IF(L147=1,D147-R147,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V147" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="AC147" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="49"/>
         <v>NA</v>
       </c>
       <c r="AE147" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF147" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
     </row>
@@ -17361,7 +17635,7 @@
         <v>2016</v>
       </c>
       <c r="V148" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="W148" s="1">
@@ -17383,18 +17657,18 @@
         <v>0</v>
       </c>
       <c r="AC148" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="49"/>
         <v>conceptual</v>
       </c>
       <c r="AD148" t="s">
         <v>11</v>
       </c>
       <c r="AE148" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF148" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
     </row>
@@ -17463,7 +17737,7 @@
         <v>1975</v>
       </c>
       <c r="V149" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="53"/>
         <v>37</v>
       </c>
       <c r="W149" s="1">
@@ -17485,18 +17759,18 @@
         <v>0</v>
       </c>
       <c r="AC149" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="49"/>
         <v>conceptual</v>
       </c>
       <c r="AD149" t="s">
         <v>852</v>
       </c>
       <c r="AE149" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF149" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>8</v>
       </c>
       <c r="AG149" t="s">
@@ -17571,7 +17845,7 @@
         <v>1996</v>
       </c>
       <c r="V150" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="W150" s="1">
@@ -17593,18 +17867,18 @@
         <v>1</v>
       </c>
       <c r="AC150" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="49"/>
         <v>conceptual</v>
       </c>
       <c r="AD150" t="s">
         <v>11</v>
       </c>
       <c r="AE150" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF150" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>42</v>
       </c>
     </row>
@@ -17660,20 +17934,24 @@
       <c r="Q151" s="1">
         <v>0</v>
       </c>
+      <c r="S151" s="1" t="str">
+        <f t="shared" ref="S151" si="55">IF(L151=1,D151-R151,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V151" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="AC151" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="49"/>
         <v>NA</v>
       </c>
       <c r="AE151" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF151" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
     </row>
@@ -17742,7 +18020,7 @@
         <v>2010</v>
       </c>
       <c r="V152" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="W152" s="1">
@@ -17764,18 +18042,18 @@
         <v>0</v>
       </c>
       <c r="AC152" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="49"/>
         <v>conceptual</v>
       </c>
       <c r="AD152" t="s">
         <v>11</v>
       </c>
       <c r="AE152" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF152" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="AG152">
@@ -17837,20 +18115,24 @@
       <c r="Q153" s="1">
         <v>0</v>
       </c>
+      <c r="S153" s="1" t="str">
+        <f t="shared" ref="S153:S154" si="56">IF(L153=1,D153-R153,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V153" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="AC153" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="49"/>
         <v>NA</v>
       </c>
       <c r="AE153" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF153" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>5</v>
       </c>
     </row>
@@ -17906,20 +18188,24 @@
       <c r="Q154" s="1">
         <v>0</v>
       </c>
+      <c r="S154" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>NA</v>
+      </c>
       <c r="V154" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="AC154" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="49"/>
         <v>NA</v>
       </c>
       <c r="AE154" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF154" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>26</v>
       </c>
     </row>
@@ -17988,7 +18274,7 @@
         <v>1997</v>
       </c>
       <c r="V155" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="53"/>
         <v>3</v>
       </c>
       <c r="W155" s="1">
@@ -18010,18 +18296,18 @@
         <v>1</v>
       </c>
       <c r="AC155" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="49"/>
         <v>conceptual</v>
       </c>
       <c r="AD155" t="s">
         <v>1060</v>
       </c>
       <c r="AE155" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF155" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>53</v>
       </c>
       <c r="AG155">
@@ -18096,7 +18382,7 @@
         <v>2007</v>
       </c>
       <c r="V156" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="53"/>
         <v>8</v>
       </c>
       <c r="W156" s="1">
@@ -18118,18 +18404,18 @@
         <v>0</v>
       </c>
       <c r="AC156" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="49"/>
         <v>conceptual</v>
       </c>
       <c r="AD156" t="s">
         <v>1063</v>
       </c>
       <c r="AE156" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF156" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>7</v>
       </c>
       <c r="AG156">
@@ -18191,20 +18477,24 @@
       <c r="Q157" s="1">
         <v>0</v>
       </c>
+      <c r="S157" s="1" t="str">
+        <f t="shared" ref="S157:S159" si="57">IF(L157=1,D157-R157,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V157" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="AC157" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="49"/>
         <v>NA</v>
       </c>
       <c r="AE157" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF157" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
     </row>
@@ -18260,20 +18550,24 @@
       <c r="Q158" s="1">
         <v>0</v>
       </c>
+      <c r="S158" s="1" t="str">
+        <f t="shared" si="57"/>
+        <v>NA</v>
+      </c>
       <c r="V158" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="AC158" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="49"/>
         <v>NA</v>
       </c>
       <c r="AE158" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF158" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>19</v>
       </c>
     </row>
@@ -18329,20 +18623,24 @@
       <c r="Q159" s="1">
         <v>0</v>
       </c>
+      <c r="S159" s="1" t="str">
+        <f t="shared" si="57"/>
+        <v>NA</v>
+      </c>
       <c r="V159" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="AC159" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="49"/>
         <v>NA</v>
       </c>
       <c r="AE159" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF159" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>2</v>
       </c>
     </row>
@@ -18411,7 +18709,7 @@
         <v>2020</v>
       </c>
       <c r="V160" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="W160" s="1">
@@ -18433,18 +18731,18 @@
         <v>0</v>
       </c>
       <c r="AC160" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="49"/>
         <v>conceptual</v>
       </c>
       <c r="AD160" t="s">
         <v>11</v>
       </c>
       <c r="AE160" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF160" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -18513,7 +18811,7 @@
         <v>1994</v>
       </c>
       <c r="V161" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="53"/>
         <v>17</v>
       </c>
       <c r="W161" s="1">
@@ -18535,18 +18833,18 @@
         <v>0</v>
       </c>
       <c r="AC161" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="49"/>
         <v>conceptual</v>
       </c>
       <c r="AD161" t="s">
         <v>1064</v>
       </c>
       <c r="AE161" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF161" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>17</v>
       </c>
       <c r="AG161">
@@ -18621,7 +18919,7 @@
         <v>1996</v>
       </c>
       <c r="V162" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="W162" s="1">
@@ -18643,18 +18941,18 @@
         <v>0</v>
       </c>
       <c r="AC162" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="49"/>
         <v>conceptual</v>
       </c>
       <c r="AD162" t="s">
         <v>11</v>
       </c>
       <c r="AE162" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF162" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>135</v>
       </c>
     </row>
@@ -18723,7 +19021,7 @@
         <v>2017</v>
       </c>
       <c r="V163" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="W163" s="1">
@@ -18745,18 +19043,18 @@
         <v>0</v>
       </c>
       <c r="AC163" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="49"/>
         <v>conceptual</v>
       </c>
       <c r="AD163" t="s">
         <v>11</v>
       </c>
       <c r="AE163" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF163" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>5</v>
       </c>
     </row>
@@ -18825,7 +19123,7 @@
         <v>2004</v>
       </c>
       <c r="V164" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="53"/>
         <v>8</v>
       </c>
       <c r="W164" s="1">
@@ -18847,18 +19145,18 @@
         <v>0</v>
       </c>
       <c r="AC164" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="49"/>
         <v>partial</v>
       </c>
       <c r="AD164" t="s">
         <v>11</v>
       </c>
       <c r="AE164" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF164" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>9</v>
       </c>
       <c r="AG164">
@@ -18921,11 +19219,14 @@
         <v>0</v>
       </c>
       <c r="R165" s="1"/>
-      <c r="S165" s="1"/>
+      <c r="S165" s="1" t="str">
+        <f t="shared" ref="S165" si="58">IF(L165=1,D165-R165,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="T165" s="1"/>
       <c r="U165" s="1"/>
       <c r="V165" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="W165" s="1"/>
@@ -18933,15 +19234,15 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
       <c r="AC165" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="49"/>
         <v>NA</v>
       </c>
       <c r="AE165" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF165" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>51</v>
       </c>
     </row>
@@ -19010,7 +19311,7 @@
         <v>2001</v>
       </c>
       <c r="V166" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="53"/>
         <v>12</v>
       </c>
       <c r="W166" s="1">
@@ -19032,18 +19333,18 @@
         <v>0</v>
       </c>
       <c r="AC166" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="49"/>
         <v>partial</v>
       </c>
       <c r="AD166" t="s">
         <v>795</v>
       </c>
       <c r="AE166" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF166" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>55</v>
       </c>
       <c r="AG166">
@@ -19118,7 +19419,7 @@
         <v>2015</v>
       </c>
       <c r="V167" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="W167" s="1">
@@ -19140,18 +19441,18 @@
         <v>0</v>
       </c>
       <c r="AC167" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="49"/>
         <v>partial</v>
       </c>
       <c r="AD167" t="s">
         <v>11</v>
       </c>
       <c r="AE167" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF167" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>5</v>
       </c>
     </row>
@@ -19220,7 +19521,7 @@
         <v>1989</v>
       </c>
       <c r="V168" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="53"/>
         <v>12</v>
       </c>
       <c r="W168" s="1">
@@ -19242,18 +19543,18 @@
         <v>0</v>
       </c>
       <c r="AC168" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="49"/>
         <v>conceptual</v>
       </c>
       <c r="AD168" t="s">
         <v>1068</v>
       </c>
       <c r="AE168" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF168" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>261</v>
       </c>
       <c r="AG168">
@@ -19328,7 +19629,7 @@
         <v>1996</v>
       </c>
       <c r="V169" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="53"/>
         <v>7</v>
       </c>
       <c r="W169" s="1">
@@ -19350,7 +19651,7 @@
         <v>0</v>
       </c>
       <c r="AC169" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="49"/>
         <v>direct</v>
       </c>
       <c r="AD169" t="s">
@@ -19360,7 +19661,7 @@
         <v>0</v>
       </c>
       <c r="AF169" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>34</v>
       </c>
       <c r="AG169">
@@ -19435,7 +19736,7 @@
         <v>1993</v>
       </c>
       <c r="V170" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="53"/>
         <v>2</v>
       </c>
       <c r="W170" s="1">
@@ -19457,18 +19758,18 @@
         <v>0</v>
       </c>
       <c r="AC170" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="49"/>
         <v>partial</v>
       </c>
       <c r="AD170" t="s">
         <v>11</v>
       </c>
       <c r="AE170" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF170" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>195</v>
       </c>
       <c r="AG170">
@@ -19531,11 +19832,14 @@
         <v>0</v>
       </c>
       <c r="R171" s="1"/>
-      <c r="S171" s="1"/>
+      <c r="S171" s="1" t="str">
+        <f t="shared" ref="S171" si="59">IF(L171=1,D171-R171,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="T171" s="1"/>
       <c r="U171" s="1"/>
       <c r="V171" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="53"/>
         <v>NA</v>
       </c>
       <c r="AE171" s="1" t="str">
@@ -19543,7 +19847,7 @@
         <v>NA</v>
       </c>
       <c r="AF171" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>50</v>
       </c>
     </row>
@@ -19634,7 +19938,7 @@
         <v>1</v>
       </c>
       <c r="AC172" s="1" t="str">
-        <f t="shared" ref="AC172:AC211" si="18">IF(O172=1, IF(SUM(W172:AB172)=0, "direct", IF(SUM(W172:AB172)=1, "partial", "conceptual")),"NA")</f>
+        <f t="shared" ref="AC172:AC211" si="60">IF(O172=1, IF(SUM(W172:AB172)=0, "direct", IF(SUM(W172:AB172)=1, "partial", "conceptual")),"NA")</f>
         <v>conceptual</v>
       </c>
       <c r="AD172" t="s">
@@ -19645,7 +19949,7 @@
         <v>NA</v>
       </c>
       <c r="AF172" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>94</v>
       </c>
     </row>
@@ -19701,20 +20005,24 @@
       <c r="Q173" s="1">
         <v>0</v>
       </c>
+      <c r="S173" s="1" t="str">
+        <f t="shared" ref="S173" si="61">IF(L173=1,D173-R173,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V173" s="1" t="str">
-        <f t="shared" ref="V173:V211" si="19">IF(O173=1,G173-U173,"NA")</f>
+        <f t="shared" ref="V173:V211" si="62">IF(O173=1,G173-U173,"NA")</f>
         <v>NA</v>
       </c>
       <c r="AC173" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="AE173" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF173" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>49</v>
       </c>
     </row>
@@ -19783,7 +20091,7 @@
         <v>2009</v>
       </c>
       <c r="V174" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>9</v>
       </c>
       <c r="W174" s="1">
@@ -19805,18 +20113,18 @@
         <v>0</v>
       </c>
       <c r="AC174" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>partial</v>
       </c>
       <c r="AD174" t="s">
         <v>11</v>
       </c>
       <c r="AE174" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF174" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>11</v>
       </c>
       <c r="AG174">
@@ -19891,7 +20199,7 @@
         <v>1999</v>
       </c>
       <c r="V175" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>2</v>
       </c>
       <c r="W175" s="1">
@@ -19913,7 +20221,7 @@
         <v>0</v>
       </c>
       <c r="AC175" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>direct</v>
       </c>
       <c r="AD175" t="s">
@@ -19923,7 +20231,7 @@
         <v>1</v>
       </c>
       <c r="AF175" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>39</v>
       </c>
       <c r="AG175">
@@ -19998,7 +20306,7 @@
         <v>2008</v>
       </c>
       <c r="V176" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>2</v>
       </c>
       <c r="W176" s="1">
@@ -20020,18 +20328,18 @@
         <v>1</v>
       </c>
       <c r="AC176" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>conceptual</v>
       </c>
       <c r="AD176" t="s">
         <v>11</v>
       </c>
       <c r="AE176" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF176" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>39</v>
       </c>
       <c r="AG176">
@@ -20093,20 +20401,24 @@
       <c r="Q177" s="1">
         <v>0</v>
       </c>
+      <c r="S177" s="1" t="str">
+        <f t="shared" ref="S177" si="63">IF(L177=1,D177-R177,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V177" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>NA</v>
       </c>
       <c r="AC177" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="AE177" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF177" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>27</v>
       </c>
     </row>
@@ -20175,7 +20487,7 @@
         <v>1983</v>
       </c>
       <c r="V178" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>13</v>
       </c>
       <c r="W178" s="1">
@@ -20197,18 +20509,18 @@
         <v>1</v>
       </c>
       <c r="AC178" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>conceptual</v>
       </c>
       <c r="AD178" t="s">
         <v>11</v>
       </c>
       <c r="AE178" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF178" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>49</v>
       </c>
       <c r="AG178">
@@ -20283,7 +20595,7 @@
         <v>2003</v>
       </c>
       <c r="V179" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>14</v>
       </c>
       <c r="W179" s="1">
@@ -20305,18 +20617,18 @@
         <v>0</v>
       </c>
       <c r="AC179" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>partial</v>
       </c>
       <c r="AD179" t="s">
         <v>11</v>
       </c>
       <c r="AE179" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF179" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>12</v>
       </c>
       <c r="AG179">
@@ -20378,20 +20690,24 @@
       <c r="Q180" s="1">
         <v>1</v>
       </c>
+      <c r="S180" s="1" t="str">
+        <f t="shared" ref="S180:S182" si="64">IF(L180=1,D180-R180,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V180" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>NA</v>
       </c>
       <c r="AC180" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="AE180" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF180" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>9</v>
       </c>
     </row>
@@ -20447,20 +20763,24 @@
       <c r="Q181" s="1">
         <v>0</v>
       </c>
+      <c r="S181" s="1" t="str">
+        <f t="shared" si="64"/>
+        <v>NA</v>
+      </c>
       <c r="V181" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>NA</v>
       </c>
       <c r="AC181" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="AE181" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF181" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>348</v>
       </c>
     </row>
@@ -20517,21 +20837,24 @@
         <v>0</v>
       </c>
       <c r="R182" s="1"/>
-      <c r="S182" s="1"/>
+      <c r="S182" s="1" t="str">
+        <f t="shared" si="64"/>
+        <v>NA</v>
+      </c>
       <c r="V182" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>NA</v>
       </c>
       <c r="AC182" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="AE182" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF182" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>44</v>
       </c>
     </row>
@@ -20600,7 +20923,7 @@
         <v>1975</v>
       </c>
       <c r="V183" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>30</v>
       </c>
       <c r="W183" s="1">
@@ -20622,18 +20945,18 @@
         <v>1</v>
       </c>
       <c r="AC183" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>partial</v>
       </c>
       <c r="AD183" t="s">
         <v>11</v>
       </c>
       <c r="AE183" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF183" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>56</v>
       </c>
       <c r="AG183">
@@ -20708,7 +21031,7 @@
         <v>1994</v>
       </c>
       <c r="V184" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>12</v>
       </c>
       <c r="W184">
@@ -20730,18 +21053,18 @@
         <v>0</v>
       </c>
       <c r="AC184" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>conceptual</v>
       </c>
       <c r="AD184" t="s">
         <v>11</v>
       </c>
       <c r="AE184" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF184" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>35</v>
       </c>
       <c r="AG184">
@@ -20816,7 +21139,7 @@
         <v>2011</v>
       </c>
       <c r="V185" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>2</v>
       </c>
       <c r="W185" s="1">
@@ -20838,18 +21161,18 @@
         <v>0</v>
       </c>
       <c r="AC185" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>conceptual</v>
       </c>
       <c r="AD185" t="s">
         <v>1081</v>
       </c>
       <c r="AE185" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF185" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>89</v>
       </c>
       <c r="AG185">
@@ -20911,20 +21234,24 @@
       <c r="Q186" s="1">
         <v>1</v>
       </c>
+      <c r="S186" s="1" t="str">
+        <f t="shared" ref="S186" si="65">IF(L186=1,D186-R186,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V186" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>NA</v>
       </c>
       <c r="AC186" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="AE186" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF186" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>29</v>
       </c>
     </row>
@@ -20993,7 +21320,7 @@
         <v>2013</v>
       </c>
       <c r="V187" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>7</v>
       </c>
       <c r="W187" s="1">
@@ -21015,18 +21342,18 @@
         <v>0</v>
       </c>
       <c r="AC187" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>partial</v>
       </c>
       <c r="AD187" t="s">
         <v>11</v>
       </c>
       <c r="AE187" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF187" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>7</v>
       </c>
       <c r="AG187">
@@ -21101,7 +21428,7 @@
         <v>2003</v>
       </c>
       <c r="V188" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="W188" s="1">
@@ -21123,18 +21450,18 @@
         <v>0</v>
       </c>
       <c r="AC188" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>conceptual</v>
       </c>
       <c r="AD188" t="s">
         <v>197</v>
       </c>
       <c r="AE188" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF188" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>30</v>
       </c>
     </row>
@@ -21190,20 +21517,24 @@
       <c r="Q189" s="1">
         <v>0</v>
       </c>
+      <c r="S189" s="1" t="str">
+        <f t="shared" ref="S189" si="66">IF(L189=1,D189-R189,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V189" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>NA</v>
       </c>
       <c r="AC189" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="AE189" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF189" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>8</v>
       </c>
     </row>
@@ -21272,7 +21603,7 @@
         <v>1994</v>
       </c>
       <c r="V190" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>4</v>
       </c>
       <c r="W190" s="1">
@@ -21294,18 +21625,18 @@
         <v>0</v>
       </c>
       <c r="AC190" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>partial</v>
       </c>
       <c r="AD190" t="s">
         <v>11</v>
       </c>
       <c r="AE190" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF190" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>33</v>
       </c>
       <c r="AG190">
@@ -21367,20 +21698,24 @@
       <c r="Q191" s="1">
         <v>1</v>
       </c>
+      <c r="S191" s="1" t="str">
+        <f t="shared" ref="S191" si="67">IF(L191=1,D191-R191,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V191" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>NA</v>
       </c>
       <c r="AC191" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="AE191" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF191" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>44</v>
       </c>
     </row>
@@ -21449,7 +21784,7 @@
         <v>1998</v>
       </c>
       <c r="V192" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>7</v>
       </c>
       <c r="W192" s="1">
@@ -21471,7 +21806,7 @@
         <v>0</v>
       </c>
       <c r="AC192" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>direct</v>
       </c>
       <c r="AD192" t="s">
@@ -21481,7 +21816,7 @@
         <v>1</v>
       </c>
       <c r="AF192" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>22</v>
       </c>
       <c r="AG192">
@@ -21556,7 +21891,7 @@
         <v>2003</v>
       </c>
       <c r="V193" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="W193" s="1">
@@ -21578,18 +21913,18 @@
         <v>0</v>
       </c>
       <c r="AC193" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>partial</v>
       </c>
       <c r="AD193" t="s">
         <v>197</v>
       </c>
       <c r="AE193" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF193" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>113</v>
       </c>
     </row>
@@ -21658,7 +21993,7 @@
         <v>2017</v>
       </c>
       <c r="V194" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="W194" s="1">
@@ -21680,18 +22015,18 @@
         <v>1</v>
       </c>
       <c r="AC194" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>partial</v>
       </c>
       <c r="AD194" t="s">
         <v>11</v>
       </c>
       <c r="AE194" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="47"/>
         <v>NA</v>
       </c>
       <c r="AF194" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="48"/>
         <v>9</v>
       </c>
     </row>
@@ -21760,7 +22095,7 @@
         <v>2013</v>
       </c>
       <c r="V195" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="W195" s="1">
@@ -21782,18 +22117,18 @@
         <v>0</v>
       </c>
       <c r="AC195" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>partial</v>
       </c>
       <c r="AD195" t="s">
         <v>1086</v>
       </c>
       <c r="AE195" s="1" t="str">
-        <f t="shared" ref="AE195:AE211" si="20">IF(AC195="direct", "check", "NA")</f>
+        <f t="shared" ref="AE195:AE211" si="68">IF(AC195="direct", "check", "NA")</f>
         <v>NA</v>
       </c>
       <c r="AF195" s="1">
-        <f t="shared" ref="AF195:AF211" si="21">E195</f>
+        <f t="shared" ref="AF195:AF211" si="69">E195</f>
         <v>1</v>
       </c>
     </row>
@@ -21862,7 +22197,7 @@
         <v>1984</v>
       </c>
       <c r="V196" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>14</v>
       </c>
       <c r="W196" s="1">
@@ -21884,18 +22219,18 @@
         <v>0</v>
       </c>
       <c r="AC196" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>partial</v>
       </c>
       <c r="AD196" t="s">
         <v>197</v>
       </c>
       <c r="AE196" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="68"/>
         <v>NA</v>
       </c>
       <c r="AF196" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="69"/>
         <v>64</v>
       </c>
       <c r="AG196">
@@ -21970,7 +22305,7 @@
         <v>2008</v>
       </c>
       <c r="V197" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="W197" s="1">
@@ -21992,18 +22327,18 @@
         <v>0</v>
       </c>
       <c r="AC197" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>partial</v>
       </c>
       <c r="AD197" t="s">
         <v>1089</v>
       </c>
       <c r="AE197" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="68"/>
         <v>NA</v>
       </c>
       <c r="AF197" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="69"/>
         <v>73</v>
       </c>
     </row>
@@ -22072,7 +22407,7 @@
         <v>2019</v>
       </c>
       <c r="V198" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="W198" s="1">
@@ -22094,18 +22429,18 @@
         <v>0</v>
       </c>
       <c r="AC198" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>partial</v>
       </c>
       <c r="AD198" t="s">
         <v>11</v>
       </c>
       <c r="AE198" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="68"/>
         <v>NA</v>
       </c>
       <c r="AF198" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="69"/>
         <v>2</v>
       </c>
     </row>
@@ -22174,7 +22509,7 @@
         <v>2016</v>
       </c>
       <c r="V199" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="W199" s="1">
@@ -22196,18 +22531,18 @@
         <v>0</v>
       </c>
       <c r="AC199" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>conceptual</v>
       </c>
       <c r="AD199" t="s">
         <v>795</v>
       </c>
       <c r="AE199" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="68"/>
         <v>NA</v>
       </c>
       <c r="AF199" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="69"/>
         <v>12</v>
       </c>
     </row>
@@ -22276,7 +22611,7 @@
         <v>2000</v>
       </c>
       <c r="V200" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>4</v>
       </c>
       <c r="W200" s="1">
@@ -22298,18 +22633,18 @@
         <v>0</v>
       </c>
       <c r="AC200" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>conceptual</v>
       </c>
       <c r="AD200" t="s">
         <v>1090</v>
       </c>
       <c r="AE200" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="68"/>
         <v>NA</v>
       </c>
       <c r="AF200" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="69"/>
         <v>94</v>
       </c>
       <c r="AG200">
@@ -22371,20 +22706,24 @@
       <c r="Q201" s="1">
         <v>1</v>
       </c>
+      <c r="S201" s="1" t="str">
+        <f t="shared" ref="S201" si="70">IF(L201=1,D201-R201,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V201" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>NA</v>
       </c>
       <c r="AC201" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="AE201" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="68"/>
         <v>NA</v>
       </c>
       <c r="AF201" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="69"/>
         <v>42</v>
       </c>
     </row>
@@ -22453,7 +22792,7 @@
         <v>2013</v>
       </c>
       <c r="V202" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>2</v>
       </c>
       <c r="W202" s="1">
@@ -22475,18 +22814,18 @@
         <v>1</v>
       </c>
       <c r="AC202" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>partial</v>
       </c>
       <c r="AD202" t="s">
         <v>11</v>
       </c>
       <c r="AE202" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="68"/>
         <v>NA</v>
       </c>
       <c r="AF202" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="69"/>
         <v>45</v>
       </c>
       <c r="AG202">
@@ -22561,7 +22900,7 @@
         <v>2000</v>
       </c>
       <c r="V203" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="W203" s="1">
@@ -22583,18 +22922,18 @@
         <v>0</v>
       </c>
       <c r="AC203" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>conceptual</v>
       </c>
       <c r="AD203" t="s">
         <v>11</v>
       </c>
       <c r="AE203" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="68"/>
         <v>NA</v>
       </c>
       <c r="AF203" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="69"/>
         <v>53</v>
       </c>
     </row>
@@ -22650,20 +22989,24 @@
       <c r="Q204" s="1">
         <v>0</v>
       </c>
+      <c r="S204" s="1" t="str">
+        <f t="shared" ref="S204" si="71">IF(L204=1,D204-R204,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V204" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>NA</v>
       </c>
       <c r="AC204" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="AE204" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="68"/>
         <v>NA</v>
       </c>
       <c r="AF204" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="69"/>
         <v>112</v>
       </c>
     </row>
@@ -22732,7 +23075,7 @@
         <v>2010</v>
       </c>
       <c r="V205" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="W205" s="1">
@@ -22754,18 +23097,18 @@
         <v>1</v>
       </c>
       <c r="AC205" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>conceptual</v>
       </c>
       <c r="AD205" t="s">
         <v>11</v>
       </c>
       <c r="AE205" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="68"/>
         <v>NA</v>
       </c>
       <c r="AF205" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="69"/>
         <v>37</v>
       </c>
     </row>
@@ -22821,20 +23164,24 @@
       <c r="Q206" s="1">
         <v>1</v>
       </c>
+      <c r="S206" s="1" t="str">
+        <f t="shared" ref="S206" si="72">IF(L206=1,D206-R206,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V206" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>NA</v>
       </c>
       <c r="AC206" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="AE206" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="68"/>
         <v>NA</v>
       </c>
       <c r="AF206" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="69"/>
         <v>49</v>
       </c>
     </row>
@@ -22903,7 +23250,7 @@
         <v>1995</v>
       </c>
       <c r="V207" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>5</v>
       </c>
       <c r="W207" s="1">
@@ -22925,18 +23272,18 @@
         <v>0</v>
       </c>
       <c r="AC207" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>conceptual</v>
       </c>
       <c r="AD207" t="s">
         <v>11</v>
       </c>
       <c r="AE207" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="68"/>
         <v>NA</v>
       </c>
       <c r="AF207" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="69"/>
         <v>8</v>
       </c>
       <c r="AG207">
@@ -22998,20 +23345,24 @@
       <c r="Q208" s="1">
         <v>0</v>
       </c>
+      <c r="S208" s="1" t="str">
+        <f t="shared" ref="S208:S210" si="73">IF(L208=1,D208-R208,"NA")</f>
+        <v>NA</v>
+      </c>
       <c r="V208" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>NA</v>
       </c>
       <c r="AC208" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="AE208" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="68"/>
         <v>NA</v>
       </c>
       <c r="AF208" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="69"/>
         <v>105</v>
       </c>
     </row>
@@ -23067,20 +23418,24 @@
       <c r="Q209" s="1">
         <v>0</v>
       </c>
+      <c r="S209" s="1" t="str">
+        <f t="shared" si="73"/>
+        <v>NA</v>
+      </c>
       <c r="V209" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>NA</v>
       </c>
       <c r="AC209" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="AE209" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="68"/>
         <v>NA</v>
       </c>
       <c r="AF209" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="69"/>
         <v>16</v>
       </c>
     </row>
@@ -23136,20 +23491,24 @@
       <c r="Q210" s="1">
         <v>0</v>
       </c>
+      <c r="S210" s="1" t="str">
+        <f t="shared" si="73"/>
+        <v>NA</v>
+      </c>
       <c r="V210" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>NA</v>
       </c>
       <c r="AC210" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>NA</v>
       </c>
       <c r="AE210" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="68"/>
         <v>NA</v>
       </c>
       <c r="AF210" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="69"/>
         <v>103</v>
       </c>
     </row>
@@ -23218,7 +23577,7 @@
         <v>1997</v>
       </c>
       <c r="V211" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="W211" s="1">
@@ -23240,18 +23599,18 @@
         <v>1</v>
       </c>
       <c r="AC211" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="60"/>
         <v>conceptual</v>
       </c>
       <c r="AD211" t="s">
         <v>1094</v>
       </c>
       <c r="AE211" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="68"/>
         <v>NA</v>
       </c>
       <c r="AF211" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="69"/>
         <v>95</v>
       </c>
       <c r="AG211">
